--- a/hispider/wiley_papers.xlsx
+++ b/hispider/wiley_papers.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\HI-spider\hispider\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2840A2D2-C8DD-412C-9E2C-7B7F1DB7404C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11355" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1577" uniqueCount="1408">
   <si>
     <t>title</t>
   </si>
@@ -24709,24 +24714,46 @@
     <t>Ed Diener
 Louis Tay</t>
   </si>
+  <si>
+    <t>International Consensus Statement on Allergy and Rhinology: Allergic Rhinitis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/10.1002/alr.22073</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -24741,16 +24768,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -25038,20 +25077,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K220"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K221"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -25086,5794 +25121,5806 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G3" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H3">
         <v>66</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>18</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F4" t="s">
         <v>22</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G4" t="s">
         <v>23</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H4">
         <v>52</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>25</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>26</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>27</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" t="s">
         <v>28</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F5" t="s">
         <v>29</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G5" t="s">
         <v>30</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H5">
         <v>65</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>32</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>33</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>34</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>35</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E6" t="s">
         <v>36</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F6" t="s">
         <v>37</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G6" t="s">
         <v>38</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H6">
         <v>1</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>40</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>41</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>42</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E7" t="s">
         <v>43</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F7" t="s">
         <v>44</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G7" t="s">
         <v>45</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H7">
         <v>0</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>47</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>48</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>49</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>50</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" t="s">
         <v>51</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F8" t="s">
         <v>52</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G8" t="s">
         <v>53</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H8">
         <v>10</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
-      <c r="A8" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
         <v>55</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>56</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>57</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>58</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" t="s">
         <v>59</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F9" t="s">
         <v>60</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G9" t="s">
         <v>61</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H9">
         <v>10</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I9" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
-      <c r="A9" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>63</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>64</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>65</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>66</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E10" t="s">
         <v>67</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F10" t="s">
         <v>68</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G10" t="s">
         <v>69</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H10">
         <v>6</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
-      <c r="A10" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
         <v>71</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>72</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>73</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E11" t="s">
         <v>74</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F11" t="s">
         <v>75</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G11" t="s">
         <v>76</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H11">
         <v>19</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
-      <c r="A11" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
         <v>78</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>79</v>
-      </c>
-      <c r="D11" t="s">
-        <v>80</v>
-      </c>
-      <c r="E11" t="s">
-        <v>81</v>
-      </c>
-      <c r="F11" t="s">
-        <v>82</v>
-      </c>
-      <c r="G11" t="s">
-        <v>83</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" t="s">
-        <v>84</v>
-      </c>
-      <c r="B12" t="s">
-        <v>85</v>
       </c>
       <c r="D12" t="s">
         <v>80</v>
       </c>
       <c r="E12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" t="s">
         <v>86</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F13" t="s">
         <v>87</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G13" t="s">
         <v>88</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H13">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
-      <c r="A13" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
         <v>89</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>90</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>91</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E14" t="s">
         <v>92</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F14" t="s">
         <v>93</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G14" t="s">
         <v>94</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H14">
         <v>12</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I14" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
-      <c r="A14" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
         <v>96</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>97</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>98</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>99</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E15" t="s">
         <v>100</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F15" t="s">
         <v>101</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G15" t="s">
         <v>102</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H15">
         <v>10</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I15" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
-      <c r="A15" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
         <v>104</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>105</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
         <v>80</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E16" t="s">
         <v>106</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F16" t="s">
         <v>107</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G16" t="s">
         <v>108</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H16">
         <v>0</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I16" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
-      <c r="A16" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
         <v>110</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>111</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>112</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" t="s">
         <v>58</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E17" t="s">
         <v>113</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F17" t="s">
         <v>114</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G17" t="s">
         <v>115</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H17">
         <v>0</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I17" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
-      <c r="A17" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
         <v>117</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>118</v>
-      </c>
-      <c r="D17" t="s">
-        <v>80</v>
-      </c>
-      <c r="E17" t="s">
-        <v>119</v>
-      </c>
-      <c r="G17" t="s">
-        <v>120</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" t="s">
-        <v>121</v>
-      </c>
-      <c r="B18" t="s">
-        <v>122</v>
       </c>
       <c r="D18" t="s">
         <v>80</v>
       </c>
       <c r="E18" t="s">
-        <v>67</v>
-      </c>
-      <c r="F18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G18" t="s">
-        <v>124</v>
-      </c>
-      <c r="H18" t="n">
+        <v>120</v>
+      </c>
+      <c r="H18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B19" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D19" t="s">
         <v>80</v>
       </c>
       <c r="E19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" t="s">
+        <v>123</v>
+      </c>
+      <c r="G19" t="s">
+        <v>124</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>125</v>
+      </c>
+      <c r="B20" t="s">
+        <v>126</v>
+      </c>
+      <c r="D20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" t="s">
         <v>127</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F20" t="s">
         <v>128</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G20" t="s">
         <v>129</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H20">
         <v>0</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I20" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
-      <c r="A20" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
         <v>131</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>132</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>133</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E21" t="s">
         <v>134</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G21" t="s">
         <v>135</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H21">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
-      <c r="A21" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
         <v>136</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>137</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>138</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D22" t="s">
         <v>58</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E22" t="s">
         <v>139</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F22" t="s">
         <v>140</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G22" t="s">
         <v>141</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H22">
         <v>40</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I22" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
-      <c r="A22" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
         <v>143</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>144</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>145</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E23" t="s">
         <v>146</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F23" t="s">
         <v>147</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G23" t="s">
         <v>148</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H23">
         <v>160</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I23" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
-      <c r="A23" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
         <v>150</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>151</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D24" t="s">
         <v>80</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E24" t="s">
         <v>152</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F24" t="s">
         <v>153</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G24" t="s">
         <v>154</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H24">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
-      <c r="A24" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
         <v>155</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>156</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>157</v>
-      </c>
-      <c r="D24" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" t="s">
-        <v>158</v>
-      </c>
-      <c r="F24" t="s">
-        <v>159</v>
-      </c>
-      <c r="G24" t="s">
-        <v>160</v>
-      </c>
-      <c r="H24" t="n">
-        <v>12</v>
-      </c>
-      <c r="I24" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" t="s">
-        <v>162</v>
-      </c>
-      <c r="B25" t="s">
-        <v>163</v>
-      </c>
-      <c r="C25" t="s">
-        <v>164</v>
       </c>
       <c r="D25" t="s">
         <v>58</v>
       </c>
       <c r="E25" t="s">
+        <v>158</v>
+      </c>
+      <c r="F25" t="s">
+        <v>159</v>
+      </c>
+      <c r="G25" t="s">
+        <v>160</v>
+      </c>
+      <c r="H25">
+        <v>12</v>
+      </c>
+      <c r="I25" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>162</v>
+      </c>
+      <c r="B26" t="s">
+        <v>163</v>
+      </c>
+      <c r="C26" t="s">
+        <v>164</v>
+      </c>
+      <c r="D26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" t="s">
         <v>165</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F26" t="s">
         <v>166</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G26" t="s">
         <v>167</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H26">
         <v>0</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I26" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
-      <c r="A26" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
         <v>169</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>170</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>171</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E27" t="s">
         <v>172</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F27" t="s">
         <v>173</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G27" t="s">
         <v>174</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H27">
         <v>27</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I27" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
-      <c r="A27" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
         <v>176</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>177</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>178</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D28" t="s">
         <v>179</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E28" t="s">
         <v>180</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F28" t="s">
         <v>181</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G28" t="s">
         <v>182</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H28">
         <v>1</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I28" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
-      <c r="A28" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
         <v>184</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>185</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D29" t="s">
         <v>186</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E29" t="s">
         <v>187</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F29" t="s">
         <v>188</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G29" t="s">
         <v>189</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H29">
         <v>0</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I29" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
-      <c r="A29" t="s">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
         <v>191</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>192</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>193</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E30" t="s">
         <v>194</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F30" t="s">
         <v>195</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G30" t="s">
         <v>196</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H30">
         <v>7</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I30" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
-      <c r="A30" t="s">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
         <v>198</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>199</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>200</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E31" t="s">
         <v>201</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F31" t="s">
         <v>202</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G31" t="s">
         <v>203</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H31">
         <v>24</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I31" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
-      <c r="A31" t="s">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
         <v>205</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>206</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>207</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D32" t="s">
         <v>208</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E32" t="s">
         <v>209</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F32" t="s">
         <v>210</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G32" t="s">
         <v>211</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H32">
         <v>0</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I32" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
-      <c r="A32" t="s">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
         <v>213</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>214</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>215</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E33" t="s">
         <v>216</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F33" t="s">
         <v>217</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G33" t="s">
         <v>218</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H33">
         <v>13</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I33" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
-      <c r="A33" t="s">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
         <v>220</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>221</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>222</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D34" t="s">
         <v>223</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E34" t="s">
         <v>224</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F34" t="s">
         <v>225</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G34" t="s">
         <v>226</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H34">
         <v>3</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I34" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
-      <c r="A34" t="s">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
         <v>228</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>229</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>230</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D35" t="s">
         <v>231</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E35" t="s">
         <v>232</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F35" t="s">
         <v>233</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G35" t="s">
         <v>234</v>
       </c>
-      <c r="H34" t="n">
+      <c r="H35">
         <v>2</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I35" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
-      <c r="A35" t="s">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
         <v>236</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>237</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>238</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D36" t="s">
         <v>99</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E36" t="s">
         <v>239</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F36" t="s">
         <v>240</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G36" t="s">
         <v>241</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H36">
         <v>0</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I36" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
-      <c r="A36" t="s">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
         <v>243</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>244</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>245</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E37" t="s">
         <v>246</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F37" t="s">
         <v>247</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G37" t="s">
         <v>248</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H37">
         <v>35</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I37" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
-      <c r="A37" t="s">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
         <v>250</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>251</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D38" t="s">
         <v>186</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E38" t="s">
         <v>252</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F38" t="s">
         <v>253</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G38" t="s">
         <v>254</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H38">
         <v>0</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I38" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
-      <c r="A38" t="s">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
         <v>256</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>257</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" t="s">
         <v>258</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E39" t="s">
         <v>259</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F39" t="s">
         <v>260</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G39" t="s">
         <v>261</v>
       </c>
-      <c r="H38" t="n">
+      <c r="H39">
         <v>11</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I39" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
-      <c r="A39" t="s">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
         <v>263</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>264</v>
-      </c>
-      <c r="D39" t="s">
-        <v>80</v>
-      </c>
-      <c r="E39" t="s">
-        <v>265</v>
-      </c>
-      <c r="F39" t="s">
-        <v>266</v>
-      </c>
-      <c r="G39" t="s">
-        <v>267</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" t="s">
-        <v>268</v>
-      </c>
-      <c r="B40" t="s">
-        <v>269</v>
       </c>
       <c r="D40" t="s">
         <v>80</v>
       </c>
       <c r="E40" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F40" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="G40" t="s">
-        <v>272</v>
-      </c>
-      <c r="H40" t="n">
+        <v>267</v>
+      </c>
+      <c r="H40">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B41" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D41" t="s">
         <v>80</v>
       </c>
       <c r="E41" t="s">
-        <v>275</v>
+        <v>270</v>
+      </c>
+      <c r="F41" t="s">
+        <v>271</v>
       </c>
       <c r="G41" t="s">
-        <v>276</v>
-      </c>
-      <c r="H41" t="n">
+        <v>272</v>
+      </c>
+      <c r="H41">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B42" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D42" t="s">
         <v>80</v>
       </c>
       <c r="E42" t="s">
-        <v>279</v>
-      </c>
-      <c r="F42" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="G42" t="s">
-        <v>281</v>
-      </c>
-      <c r="H42" t="n">
+        <v>276</v>
+      </c>
+      <c r="H42">
         <v>0</v>
       </c>
-      <c r="I42" t="s">
-        <v>282</v>
-      </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B43" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D43" t="s">
         <v>80</v>
       </c>
       <c r="E43" t="s">
+        <v>279</v>
+      </c>
+      <c r="F43" t="s">
+        <v>280</v>
+      </c>
+      <c r="G43" t="s">
+        <v>281</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>283</v>
+      </c>
+      <c r="B44" t="s">
+        <v>284</v>
+      </c>
+      <c r="D44" t="s">
+        <v>80</v>
+      </c>
+      <c r="E44" t="s">
         <v>285</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F44" t="s">
         <v>286</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G44" t="s">
         <v>287</v>
       </c>
-      <c r="H43" t="n">
+      <c r="H44">
         <v>0</v>
       </c>
-      <c r="I43" t="s">
+      <c r="I44" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
-      <c r="A44" t="s">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
         <v>289</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" t="s">
         <v>290</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C45" t="s">
         <v>291</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E45" t="s">
         <v>292</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F45" t="s">
         <v>293</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G45" t="s">
         <v>294</v>
       </c>
-      <c r="H44" t="n">
+      <c r="H45">
         <v>58</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I45" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
-      <c r="A45" t="s">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
         <v>296</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B46" t="s">
         <v>297</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C46" t="s">
         <v>298</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D46" t="s">
         <v>99</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E46" t="s">
         <v>299</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F46" t="s">
         <v>300</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G46" t="s">
         <v>301</v>
       </c>
-      <c r="H45" t="n">
+      <c r="H46">
         <v>0</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I46" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
-      <c r="A46" t="s">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
         <v>303</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B47" t="s">
         <v>304</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C47" t="s">
         <v>305</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D47" t="s">
         <v>306</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E47" t="s">
         <v>307</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F47" t="s">
         <v>308</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G47" t="s">
         <v>309</v>
       </c>
-      <c r="H46" t="n">
+      <c r="H47">
         <v>5</v>
       </c>
-      <c r="I46" t="s">
+      <c r="I47" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
-      <c r="A47" t="s">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
         <v>311</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" t="s">
         <v>312</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D48" t="s">
         <v>80</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E48" t="s">
         <v>313</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F48" t="s">
         <v>314</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G48" t="s">
         <v>315</v>
       </c>
-      <c r="H47" t="n">
+      <c r="H48">
         <v>0</v>
-      </c>
-      <c r="I47" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48" t="s">
-        <v>317</v>
-      </c>
-      <c r="B48" t="s">
-        <v>318</v>
-      </c>
-      <c r="C48" t="s">
-        <v>319</v>
-      </c>
-      <c r="D48" t="s">
-        <v>320</v>
-      </c>
-      <c r="E48" t="s">
-        <v>321</v>
-      </c>
-      <c r="F48" t="s">
-        <v>322</v>
-      </c>
-      <c r="G48" t="s">
-        <v>323</v>
-      </c>
-      <c r="H48" t="n">
-        <v>12</v>
       </c>
       <c r="I48" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
+        <v>317</v>
+      </c>
+      <c r="B49" t="s">
+        <v>318</v>
+      </c>
+      <c r="C49" t="s">
+        <v>319</v>
+      </c>
+      <c r="D49" t="s">
+        <v>320</v>
+      </c>
+      <c r="E49" t="s">
+        <v>321</v>
+      </c>
+      <c r="F49" t="s">
+        <v>322</v>
+      </c>
+      <c r="G49" t="s">
+        <v>323</v>
+      </c>
+      <c r="H49">
+        <v>12</v>
+      </c>
+      <c r="I49" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
         <v>324</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B50" t="s">
         <v>325</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C50" t="s">
         <v>326</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E50" t="s">
         <v>327</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F50" t="s">
         <v>328</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G50" t="s">
         <v>329</v>
       </c>
-      <c r="H49" t="n">
+      <c r="H50">
         <v>204</v>
       </c>
-      <c r="I49" t="s">
+      <c r="I50" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
-      <c r="A50" t="s">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
         <v>331</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B51" t="s">
         <v>332</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C51" t="s">
         <v>333</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D51" t="s">
         <v>58</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E51" t="s">
         <v>334</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F51" t="s">
         <v>335</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G51" t="s">
         <v>336</v>
       </c>
-      <c r="H50" t="n">
+      <c r="H51">
         <v>11</v>
       </c>
-      <c r="I50" t="s">
+      <c r="I51" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
-      <c r="A51" t="s">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
         <v>338</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B52" t="s">
         <v>339</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C52" t="s">
         <v>340</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E52" t="s">
         <v>341</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F52" t="s">
         <v>342</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G52" t="s">
         <v>343</v>
       </c>
-      <c r="H51" t="n">
+      <c r="H52">
         <v>11</v>
       </c>
-      <c r="I51" t="s">
+      <c r="I52" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
-      <c r="A52" t="s">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
         <v>345</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B53" t="s">
         <v>346</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C53" t="s">
         <v>347</v>
-      </c>
-      <c r="D52" t="s">
-        <v>223</v>
-      </c>
-      <c r="F52" t="s">
-        <v>348</v>
-      </c>
-      <c r="G52" t="s">
-        <v>349</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
-      <c r="A53" t="s">
-        <v>351</v>
-      </c>
-      <c r="B53" t="s">
-        <v>352</v>
-      </c>
-      <c r="C53" t="s">
-        <v>353</v>
       </c>
       <c r="D53" t="s">
         <v>223</v>
       </c>
-      <c r="E53" t="s">
-        <v>354</v>
-      </c>
       <c r="F53" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="G53" t="s">
-        <v>356</v>
-      </c>
-      <c r="H53" t="n">
+        <v>349</v>
+      </c>
+      <c r="H53">
         <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="B54" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="C54" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="D54" t="s">
         <v>223</v>
       </c>
       <c r="E54" t="s">
+        <v>354</v>
+      </c>
+      <c r="F54" t="s">
+        <v>355</v>
+      </c>
+      <c r="G54" t="s">
+        <v>356</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>358</v>
+      </c>
+      <c r="B55" t="s">
+        <v>359</v>
+      </c>
+      <c r="C55" t="s">
+        <v>360</v>
+      </c>
+      <c r="D55" t="s">
+        <v>223</v>
+      </c>
+      <c r="E55" t="s">
         <v>361</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F55" t="s">
         <v>362</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G55" t="s">
         <v>363</v>
       </c>
-      <c r="H54" t="n">
+      <c r="H55">
         <v>0</v>
       </c>
-      <c r="I54" t="s">
+      <c r="I55" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
-      <c r="A55" t="s">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
         <v>365</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B56" t="s">
         <v>366</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C56" t="s">
         <v>367</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D56" t="s">
         <v>368</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E56" t="s">
         <v>369</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F56" t="s">
         <v>370</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G56" t="s">
         <v>371</v>
       </c>
-      <c r="H55" t="n">
+      <c r="H56">
         <v>2</v>
       </c>
-      <c r="I55" t="s">
+      <c r="I56" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
-      <c r="A56" t="s">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
         <v>373</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B57" t="s">
         <v>374</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C57" t="s">
         <v>375</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D57" t="s">
         <v>320</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E57" t="s">
         <v>376</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F57" t="s">
         <v>377</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G57" t="s">
         <v>378</v>
       </c>
-      <c r="H56" t="n">
+      <c r="H57">
         <v>3</v>
       </c>
-      <c r="I56" t="s">
+      <c r="I57" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
-      <c r="A57" t="s">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
         <v>380</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B58" t="s">
         <v>381</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C58" t="s">
         <v>382</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D58" t="s">
         <v>383</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E58" t="s">
         <v>384</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F58" t="s">
         <v>385</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G58" t="s">
         <v>386</v>
       </c>
-      <c r="H57" t="n">
+      <c r="H58">
         <v>26</v>
       </c>
-      <c r="I57" t="s">
+      <c r="I58" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
-      <c r="A58" t="s">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
         <v>388</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B59" t="s">
         <v>389</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C59" t="s">
         <v>390</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E59" t="s">
         <v>119</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F59" t="s">
         <v>391</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G59" t="s">
         <v>392</v>
       </c>
-      <c r="H58" t="n">
+      <c r="H59">
         <v>12</v>
       </c>
-      <c r="I58" t="s">
+      <c r="I59" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
-      <c r="A59" t="s">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
         <v>394</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B60" t="s">
         <v>395</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C60" t="s">
         <v>396</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E60" t="s">
         <v>397</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F60" t="s">
         <v>398</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G60" t="s">
         <v>399</v>
       </c>
-      <c r="H59" t="n">
+      <c r="H60">
         <v>21</v>
       </c>
-      <c r="I59" t="s">
+      <c r="I60" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
-      <c r="A60" t="s">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
         <v>401</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B61" t="s">
         <v>402</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C61" t="s">
         <v>403</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D61" t="s">
         <v>58</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E61" t="s">
         <v>404</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F61" t="s">
         <v>405</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G61" t="s">
         <v>406</v>
       </c>
-      <c r="H60" t="n">
+      <c r="H61">
         <v>22</v>
       </c>
-      <c r="I60" t="s">
+      <c r="I61" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
-      <c r="A61" t="s">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
         <v>408</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B62" t="s">
         <v>409</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C62" t="s">
         <v>410</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D62" t="s">
         <v>411</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E62" t="s">
         <v>412</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F62" t="s">
         <v>413</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G62" t="s">
         <v>414</v>
       </c>
-      <c r="H61" t="n">
+      <c r="H62">
         <v>2</v>
       </c>
-      <c r="I61" t="s">
+      <c r="I62" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
-      <c r="A62" t="s">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
         <v>416</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B63" t="s">
         <v>417</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C63" t="s">
         <v>418</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E63" t="s">
         <v>419</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F63" t="s">
         <v>420</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G63" t="s">
         <v>421</v>
       </c>
-      <c r="H62" t="n">
+      <c r="H63">
         <v>5</v>
       </c>
-      <c r="I62" t="s">
+      <c r="I63" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
-      <c r="A63" t="s">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
         <v>423</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B64" t="s">
         <v>424</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C64" t="s">
         <v>425</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D64" t="s">
         <v>50</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E64" t="s">
         <v>426</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F64" t="s">
         <v>427</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G64" t="s">
         <v>428</v>
       </c>
-      <c r="H63" t="n">
+      <c r="H64">
         <v>5</v>
       </c>
-      <c r="I63" t="s">
+      <c r="I64" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
-      <c r="A64" t="s">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
         <v>430</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B65" t="s">
         <v>431</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D65" t="s">
         <v>80</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E65" t="s">
         <v>432</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F65" t="s">
         <v>433</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G65" t="s">
         <v>434</v>
       </c>
-      <c r="H64" t="n">
+      <c r="H65">
         <v>2</v>
       </c>
-      <c r="I64" t="s">
+      <c r="I65" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
-      <c r="A65" t="s">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
         <v>436</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B66" t="s">
         <v>437</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C66" t="s">
         <v>438</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D66" t="s">
         <v>320</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E66" t="s">
         <v>439</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F66" t="s">
         <v>440</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G66" t="s">
         <v>441</v>
       </c>
-      <c r="H65" t="n">
+      <c r="H66">
         <v>2</v>
       </c>
-      <c r="I65" t="s">
+      <c r="I66" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
-      <c r="A66" t="s">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
         <v>443</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B67" t="s">
         <v>444</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D67" t="s">
         <v>186</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E67" t="s">
         <v>445</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F67" t="s">
         <v>446</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G67" t="s">
         <v>447</v>
       </c>
-      <c r="H66" t="n">
+      <c r="H67">
         <v>0</v>
       </c>
-      <c r="I66" t="s">
+      <c r="I67" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
-      <c r="A67" t="s">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
         <v>449</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B68" t="s">
         <v>450</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C68" t="s">
         <v>451</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E68" t="s">
         <v>452</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F68" t="s">
         <v>453</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G68" t="s">
         <v>454</v>
       </c>
-      <c r="H67" t="n">
+      <c r="H68">
         <v>61</v>
       </c>
-      <c r="I67" t="s">
+      <c r="I68" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
-      <c r="A68" t="s">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
         <v>456</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B69" t="s">
         <v>457</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C69" t="s">
         <v>458</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D69" t="s">
         <v>223</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E69" t="s">
         <v>459</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F69" t="s">
         <v>460</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G69" t="s">
         <v>461</v>
       </c>
-      <c r="H68" t="n">
+      <c r="H69">
         <v>2</v>
       </c>
-      <c r="I68" t="s">
+      <c r="I69" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
-      <c r="A69" t="s">
-        <v>443</v>
-      </c>
-      <c r="B69" t="s">
-        <v>463</v>
-      </c>
-      <c r="D69" t="s">
-        <v>186</v>
-      </c>
-      <c r="E69" t="s">
-        <v>187</v>
-      </c>
-      <c r="F69" t="s">
-        <v>446</v>
-      </c>
-      <c r="G69" t="s">
-        <v>464</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>443</v>
       </c>
       <c r="B70" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D70" t="s">
         <v>186</v>
       </c>
       <c r="E70" t="s">
-        <v>466</v>
+        <v>187</v>
       </c>
       <c r="F70" t="s">
         <v>446</v>
       </c>
       <c r="G70" t="s">
-        <v>467</v>
-      </c>
-      <c r="H70" t="n">
+        <v>464</v>
+      </c>
+      <c r="H70">
         <v>0</v>
       </c>
       <c r="I70" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>443</v>
       </c>
       <c r="B71" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D71" t="s">
         <v>186</v>
       </c>
       <c r="E71" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F71" t="s">
         <v>446</v>
       </c>
       <c r="G71" t="s">
-        <v>470</v>
-      </c>
-      <c r="H71" t="n">
+        <v>467</v>
+      </c>
+      <c r="H71">
         <v>0</v>
       </c>
       <c r="I71" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
+        <v>443</v>
+      </c>
+      <c r="B72" t="s">
+        <v>468</v>
+      </c>
+      <c r="D72" t="s">
+        <v>186</v>
+      </c>
+      <c r="E72" t="s">
+        <v>469</v>
+      </c>
+      <c r="F72" t="s">
+        <v>446</v>
+      </c>
+      <c r="G72" t="s">
+        <v>470</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
         <v>471</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B73" t="s">
         <v>472</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C73" t="s">
         <v>473</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D73" t="s">
         <v>58</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E73" t="s">
         <v>474</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F73" t="s">
         <v>475</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G73" t="s">
         <v>476</v>
       </c>
-      <c r="H72" t="n">
+      <c r="H73">
         <v>32</v>
       </c>
-      <c r="I72" t="s">
+      <c r="I73" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
-      <c r="A73" t="s">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
         <v>478</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B74" t="s">
         <v>479</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C74" t="s">
         <v>480</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E74" t="s">
         <v>481</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F74" t="s">
         <v>482</v>
       </c>
-      <c r="G73" t="s">
+      <c r="G74" t="s">
         <v>483</v>
       </c>
-      <c r="H73" t="n">
+      <c r="H74">
         <v>7</v>
       </c>
-      <c r="I73" t="s">
+      <c r="I74" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
-      <c r="A74" t="s">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
         <v>485</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B75" t="s">
         <v>486</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D75" t="s">
         <v>80</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E75" t="s">
         <v>487</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F75" t="s">
         <v>488</v>
       </c>
-      <c r="G74" t="s">
+      <c r="G75" t="s">
         <v>489</v>
       </c>
-      <c r="H74" t="n">
+      <c r="H75">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
-      <c r="A75" t="s">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
         <v>490</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B76" t="s">
         <v>491</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C76" t="s">
         <v>492</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E76" t="s">
         <v>493</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F76" t="s">
         <v>494</v>
       </c>
-      <c r="G75" t="s">
+      <c r="G76" t="s">
         <v>495</v>
       </c>
-      <c r="H75" t="n">
+      <c r="H76">
         <v>0</v>
       </c>
-      <c r="I75" t="s">
+      <c r="I76" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
-      <c r="A76" t="s">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
         <v>497</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B77" t="s">
         <v>498</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C77" t="s">
         <v>499</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E77" t="s">
         <v>500</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F77" t="s">
         <v>501</v>
       </c>
-      <c r="G76" t="s">
+      <c r="G77" t="s">
         <v>502</v>
       </c>
-      <c r="H76" t="n">
+      <c r="H77">
         <v>6</v>
       </c>
-      <c r="I76" t="s">
+      <c r="I77" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
-      <c r="A77" t="s">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
         <v>504</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B78" t="s">
         <v>505</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C78" t="s">
         <v>506</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E78" t="s">
         <v>507</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F78" t="s">
         <v>508</v>
       </c>
-      <c r="G77" t="s">
+      <c r="G78" t="s">
         <v>509</v>
       </c>
-      <c r="H77" t="n">
+      <c r="H78">
         <v>1</v>
       </c>
-      <c r="I77" t="s">
+      <c r="I78" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
-      <c r="A78" t="s">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
         <v>511</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B79" t="s">
         <v>512</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C79" t="s">
         <v>513</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E79" t="s">
         <v>514</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F79" t="s">
         <v>515</v>
       </c>
-      <c r="G78" t="s">
+      <c r="G79" t="s">
         <v>516</v>
       </c>
-      <c r="H78" t="n">
+      <c r="H79">
         <v>4</v>
       </c>
-      <c r="I78" t="s">
+      <c r="I79" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
-      <c r="A79" t="s">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
         <v>518</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B80" t="s">
         <v>519</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C80" t="s">
         <v>520</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E80" t="s">
         <v>521</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F80" t="s">
         <v>522</v>
       </c>
-      <c r="G79" t="s">
+      <c r="G80" t="s">
         <v>523</v>
       </c>
-      <c r="H79" t="n">
+      <c r="H80">
         <v>3</v>
       </c>
-      <c r="I79" t="s">
+      <c r="I80" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
-      <c r="A80" t="s">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A81" t="s">
         <v>525</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B81" t="s">
         <v>526</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C81" t="s">
         <v>527</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D81" t="s">
         <v>58</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E81" t="s">
         <v>528</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F81" t="s">
         <v>529</v>
       </c>
-      <c r="G80" t="s">
+      <c r="G81" t="s">
         <v>530</v>
       </c>
-      <c r="H80" t="n">
+      <c r="H81">
         <v>14</v>
       </c>
-      <c r="I80" t="s">
+      <c r="I81" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
-      <c r="A81" t="s">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A82" t="s">
         <v>532</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B82" t="s">
         <v>533</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C82" t="s">
         <v>534</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D82" t="s">
         <v>50</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E82" t="s">
         <v>535</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F82" t="s">
         <v>536</v>
       </c>
-      <c r="G81" t="s">
+      <c r="G82" t="s">
         <v>537</v>
       </c>
-      <c r="H81" t="n">
+      <c r="H82">
         <v>0</v>
       </c>
-      <c r="I81" t="s">
+      <c r="I82" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
-      <c r="A82" t="s">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A83" t="s">
         <v>539</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B83" t="s">
         <v>540</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C83" t="s">
         <v>541</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D83" t="s">
         <v>542</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E83" t="s">
         <v>543</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F83" t="s">
         <v>544</v>
       </c>
-      <c r="G82" t="s">
+      <c r="G83" t="s">
         <v>545</v>
       </c>
-      <c r="H82" t="n">
+      <c r="H83">
         <v>0</v>
       </c>
-      <c r="I82" t="s">
+      <c r="I83" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
-      <c r="A83" t="s">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A84" t="s">
         <v>547</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B84" t="s">
         <v>548</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D84" t="s">
         <v>80</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E84" t="s">
         <v>549</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F84" t="s">
         <v>550</v>
       </c>
-      <c r="G83" t="s">
+      <c r="G84" t="s">
         <v>551</v>
       </c>
-      <c r="H83" t="n">
+      <c r="H84">
         <v>8</v>
       </c>
-      <c r="I83" t="s">
+      <c r="I84" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
-      <c r="A84" t="s">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A85" t="s">
         <v>553</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B85" t="s">
         <v>554</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C85" t="s">
         <v>555</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E85" t="s">
         <v>556</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F85" t="s">
         <v>557</v>
       </c>
-      <c r="G84" t="s">
+      <c r="G85" t="s">
         <v>558</v>
       </c>
-      <c r="H84" t="n">
+      <c r="H85">
         <v>19</v>
       </c>
-      <c r="I84" t="s">
+      <c r="I85" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
-      <c r="A85" t="s">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A86" t="s">
         <v>560</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B86" t="s">
         <v>561</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D86" t="s">
         <v>80</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E86" t="s">
         <v>562</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F86" t="s">
         <v>563</v>
       </c>
-      <c r="G85" t="s">
+      <c r="G86" t="s">
         <v>564</v>
       </c>
-      <c r="H85" t="n">
+      <c r="H86">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
-      <c r="A86" t="s">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A87" t="s">
         <v>565</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B87" t="s">
         <v>566</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C87" t="s">
         <v>567</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D87" t="s">
         <v>231</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E87" t="s">
         <v>568</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F87" t="s">
         <v>569</v>
       </c>
-      <c r="G86" t="s">
+      <c r="G87" t="s">
         <v>570</v>
       </c>
-      <c r="H86" t="n">
+      <c r="H87">
         <v>9</v>
       </c>
-      <c r="I86" t="s">
+      <c r="I87" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
-      <c r="A87" t="s">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A88" t="s">
         <v>572</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B88" t="s">
         <v>573</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C88" t="s">
         <v>574</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D88" t="s">
         <v>575</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E88" t="s">
         <v>576</v>
       </c>
-      <c r="F87" t="s">
+      <c r="F88" t="s">
         <v>577</v>
       </c>
-      <c r="G87" t="s">
+      <c r="G88" t="s">
         <v>578</v>
       </c>
-      <c r="H87" t="n">
+      <c r="H88">
         <v>1</v>
       </c>
-      <c r="I87" t="s">
+      <c r="I88" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
-      <c r="A88" t="s">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A89" t="s">
         <v>580</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B89" t="s">
         <v>581</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C89" t="s">
         <v>582</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E89" t="s">
         <v>583</v>
       </c>
-      <c r="F88" t="s">
+      <c r="F89" t="s">
         <v>584</v>
       </c>
-      <c r="G88" t="s">
+      <c r="G89" t="s">
         <v>585</v>
       </c>
-      <c r="H88" t="n">
+      <c r="H89">
         <v>55</v>
       </c>
-      <c r="I88" t="s">
+      <c r="I89" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
-      <c r="A89" t="s">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A90" t="s">
         <v>587</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B90" t="s">
         <v>588</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C90" t="s">
         <v>589</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D90" t="s">
         <v>58</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E90" t="s">
         <v>590</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F90" t="s">
         <v>591</v>
       </c>
-      <c r="G89" t="s">
+      <c r="G90" t="s">
         <v>592</v>
       </c>
-      <c r="H89" t="n">
+      <c r="H90">
         <v>5</v>
       </c>
-      <c r="I89" t="s">
+      <c r="I90" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
-      <c r="A90" t="s">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A91" t="s">
         <v>594</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B91" t="s">
         <v>595</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C91" t="s">
         <v>596</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D91" t="s">
         <v>223</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E91" t="s">
         <v>597</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F91" t="s">
         <v>598</v>
       </c>
-      <c r="G90" t="s">
+      <c r="G91" t="s">
         <v>599</v>
       </c>
-      <c r="H90" t="n">
+      <c r="H91">
         <v>0</v>
       </c>
-      <c r="I90" t="s">
+      <c r="I91" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
-      <c r="A91" t="s">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A92" t="s">
         <v>601</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B92" t="s">
         <v>602</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C92" t="s">
         <v>603</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D92" t="s">
         <v>58</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E92" t="s">
         <v>604</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F92" t="s">
         <v>605</v>
       </c>
-      <c r="G91" t="s">
+      <c r="G92" t="s">
         <v>606</v>
       </c>
-      <c r="H91" t="n">
+      <c r="H92">
         <v>7</v>
       </c>
-      <c r="I91" t="s">
+      <c r="I92" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
-      <c r="A92" t="s">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A93" t="s">
         <v>608</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B93" t="s">
         <v>609</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C93" t="s">
         <v>610</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E93" t="s">
         <v>611</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F93" t="s">
         <v>612</v>
       </c>
-      <c r="G92" t="s">
+      <c r="G93" t="s">
         <v>613</v>
       </c>
-      <c r="H92" t="n">
+      <c r="H93">
         <v>2</v>
       </c>
-      <c r="I92" t="s">
+      <c r="I93" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
-      <c r="A93" t="s">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A94" t="s">
         <v>615</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B94" t="s">
         <v>616</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C94" t="s">
         <v>617</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D94" t="s">
         <v>58</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E94" t="s">
         <v>265</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F94" t="s">
         <v>618</v>
       </c>
-      <c r="G93" t="s">
+      <c r="G94" t="s">
         <v>619</v>
       </c>
-      <c r="H93" t="n">
+      <c r="H94">
         <v>13</v>
       </c>
-      <c r="I93" t="s">
+      <c r="I94" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
-      <c r="A94" t="s">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A95" t="s">
         <v>621</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B95" t="s">
         <v>622</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C95" t="s">
         <v>623</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D95" t="s">
         <v>624</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E95" t="s">
         <v>625</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F95" t="s">
         <v>626</v>
       </c>
-      <c r="G94" t="s">
+      <c r="G95" t="s">
         <v>627</v>
       </c>
-      <c r="H94" t="n">
+      <c r="H95">
         <v>9</v>
       </c>
-      <c r="I94" t="s">
+      <c r="I95" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
-      <c r="A95" t="s">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A96" t="s">
         <v>629</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B96" t="s">
         <v>630</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D96" t="s">
         <v>80</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E96" t="s">
         <v>631</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F96" t="s">
         <v>632</v>
       </c>
-      <c r="G95" t="s">
+      <c r="G96" t="s">
         <v>633</v>
       </c>
-      <c r="H95" t="n">
+      <c r="H96">
         <v>0</v>
       </c>
-      <c r="I95" t="s">
+      <c r="I96" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
-      <c r="A96" t="s">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A97" t="s">
         <v>635</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B97" t="s">
         <v>636</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C97" t="s">
         <v>637</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D97" t="s">
         <v>306</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E97" t="s">
         <v>638</v>
       </c>
-      <c r="F96" t="s">
+      <c r="F97" t="s">
         <v>639</v>
       </c>
-      <c r="G96" t="s">
+      <c r="G97" t="s">
         <v>640</v>
       </c>
-      <c r="H96" t="n">
+      <c r="H97">
         <v>0</v>
       </c>
-      <c r="I96" t="s">
+      <c r="I97" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
-      <c r="A97" t="s">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A98" t="s">
         <v>642</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B98" t="s">
         <v>643</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D98" t="s">
         <v>80</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E98" t="s">
         <v>644</v>
       </c>
-      <c r="F97" t="s">
+      <c r="F98" t="s">
         <v>645</v>
       </c>
-      <c r="G97" t="s">
+      <c r="G98" t="s">
         <v>646</v>
       </c>
-      <c r="H97" t="n">
+      <c r="H98">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:11">
-      <c r="A98" t="s">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A99" t="s">
         <v>647</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B99" t="s">
         <v>648</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C99" t="s">
         <v>649</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E99" t="s">
         <v>650</v>
       </c>
-      <c r="F98" t="s">
+      <c r="F99" t="s">
         <v>651</v>
       </c>
-      <c r="G98" t="s">
+      <c r="G99" t="s">
         <v>652</v>
       </c>
-      <c r="H98" t="n">
+      <c r="H99">
         <v>2</v>
       </c>
-      <c r="I98" t="s">
+      <c r="I99" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="99" spans="1:11">
-      <c r="A99" t="s">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A100" t="s">
         <v>654</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B100" t="s">
         <v>655</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C100" t="s">
         <v>656</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D100" t="s">
         <v>320</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E100" t="s">
         <v>657</v>
       </c>
-      <c r="F99" t="s">
+      <c r="F100" t="s">
         <v>658</v>
       </c>
-      <c r="G99" t="s">
+      <c r="G100" t="s">
         <v>659</v>
       </c>
-      <c r="H99" t="n">
+      <c r="H100">
         <v>1</v>
       </c>
-      <c r="I99" t="s">
+      <c r="I100" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
-      <c r="A100" t="s">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A101" t="s">
         <v>661</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B101" t="s">
         <v>662</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C101" t="s">
         <v>663</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D101" t="s">
         <v>50</v>
       </c>
-      <c r="E100" t="s">
+      <c r="E101" t="s">
         <v>664</v>
       </c>
-      <c r="F100" t="s">
+      <c r="F101" t="s">
         <v>665</v>
       </c>
-      <c r="G100" t="s">
+      <c r="G101" t="s">
         <v>666</v>
       </c>
-      <c r="H100" t="n">
+      <c r="H101">
         <v>1</v>
       </c>
-      <c r="I100" t="s">
+      <c r="I101" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="101" spans="1:11">
-      <c r="A101" t="s">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A102" t="s">
         <v>668</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B102" t="s">
         <v>669</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C102" t="s">
         <v>670</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D102" t="s">
         <v>671</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E102" t="s">
         <v>672</v>
       </c>
-      <c r="F101" t="s">
+      <c r="F102" t="s">
         <v>673</v>
       </c>
-      <c r="G101" t="s">
+      <c r="G102" t="s">
         <v>674</v>
       </c>
-      <c r="H101" t="n">
+      <c r="H102">
         <v>19</v>
       </c>
-      <c r="I101" t="s">
+      <c r="I102" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="102" spans="1:11">
-      <c r="A102" t="s">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A103" t="s">
         <v>676</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B103" t="s">
         <v>677</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C103" t="s">
         <v>678</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D103" t="s">
         <v>99</v>
       </c>
-      <c r="E102" t="s">
+      <c r="E103" t="s">
         <v>679</v>
       </c>
-      <c r="F102" t="s">
+      <c r="F103" t="s">
         <v>680</v>
       </c>
-      <c r="G102" t="s">
+      <c r="G103" t="s">
         <v>681</v>
       </c>
-      <c r="H102" t="n">
+      <c r="H103">
         <v>1</v>
       </c>
-      <c r="I102" t="s">
+      <c r="I103" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="103" spans="1:11">
-      <c r="A103" t="s">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A104" t="s">
         <v>683</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B104" t="s">
         <v>684</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C104" t="s">
         <v>663</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D104" t="s">
         <v>50</v>
       </c>
-      <c r="E103" t="s">
+      <c r="E104" t="s">
         <v>685</v>
       </c>
-      <c r="F103" t="s">
+      <c r="F104" t="s">
         <v>686</v>
       </c>
-      <c r="G103" t="s">
+      <c r="G104" t="s">
         <v>687</v>
       </c>
-      <c r="H103" t="n">
+      <c r="H104">
         <v>1</v>
       </c>
-      <c r="I103" t="s">
+      <c r="I104" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="104" spans="1:11">
-      <c r="A104" t="s">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A105" t="s">
         <v>689</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B105" t="s">
         <v>690</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C105" t="s">
         <v>691</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D105" t="s">
         <v>223</v>
       </c>
-      <c r="E104" t="s">
+      <c r="E105" t="s">
         <v>692</v>
       </c>
-      <c r="F104" t="s">
+      <c r="F105" t="s">
         <v>693</v>
       </c>
-      <c r="G104" t="s">
+      <c r="G105" t="s">
         <v>694</v>
       </c>
-      <c r="H104" t="n">
+      <c r="H105">
         <v>0</v>
       </c>
-      <c r="I104" t="s">
+      <c r="I105" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="105" spans="1:11">
-      <c r="A105" t="s">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A106" t="s">
         <v>696</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B106" t="s">
         <v>697</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C106" t="s">
         <v>698</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D106" t="s">
         <v>306</v>
       </c>
-      <c r="E105" t="s">
+      <c r="E106" t="s">
         <v>699</v>
       </c>
-      <c r="F105" t="s">
+      <c r="F106" t="s">
         <v>700</v>
       </c>
-      <c r="G105" t="s">
+      <c r="G106" t="s">
         <v>701</v>
       </c>
-      <c r="H105" t="n">
+      <c r="H106">
         <v>3</v>
       </c>
-      <c r="I105" t="s">
+      <c r="I106" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="106" spans="1:11">
-      <c r="A106" t="s">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A107" t="s">
         <v>703</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B107" t="s">
         <v>704</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C107" t="s">
         <v>705</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D107" t="s">
         <v>58</v>
       </c>
-      <c r="E106" t="s">
+      <c r="E107" t="s">
         <v>706</v>
       </c>
-      <c r="F106" t="s">
+      <c r="F107" t="s">
         <v>707</v>
       </c>
-      <c r="G106" t="s">
+      <c r="G107" t="s">
         <v>708</v>
       </c>
-      <c r="H106" t="n">
+      <c r="H107">
         <v>0</v>
       </c>
-      <c r="I106" t="s">
+      <c r="I107" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="107" spans="1:11">
-      <c r="A107" t="s">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A108" t="s">
         <v>710</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B108" t="s">
         <v>711</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C108" t="s">
         <v>712</v>
       </c>
-      <c r="E107" t="s">
+      <c r="E108" t="s">
         <v>713</v>
       </c>
-      <c r="F107" t="s">
+      <c r="F108" t="s">
         <v>714</v>
       </c>
-      <c r="G107" t="s">
+      <c r="G108" t="s">
         <v>715</v>
       </c>
-      <c r="H107" t="n">
+      <c r="H108">
         <v>114</v>
       </c>
-      <c r="I107" t="s">
+      <c r="I108" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="108" spans="1:11">
-      <c r="A108" t="s">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A109" t="s">
         <v>717</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B109" t="s">
         <v>718</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C109" t="s">
         <v>719</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D109" t="s">
         <v>58</v>
       </c>
-      <c r="E108" t="s">
+      <c r="E109" t="s">
         <v>720</v>
       </c>
-      <c r="F108" t="s">
+      <c r="F109" t="s">
         <v>721</v>
       </c>
-      <c r="G108" t="s">
+      <c r="G109" t="s">
         <v>722</v>
       </c>
-      <c r="H108" t="n">
+      <c r="H109">
         <v>16</v>
       </c>
-      <c r="I108" t="s">
+      <c r="I109" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="109" spans="1:11">
-      <c r="A109" t="s">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A110" t="s">
         <v>724</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B110" t="s">
         <v>725</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D110" t="s">
         <v>186</v>
       </c>
-      <c r="E109" t="s">
+      <c r="E110" t="s">
         <v>726</v>
       </c>
-      <c r="F109" t="s">
+      <c r="F110" t="s">
         <v>727</v>
       </c>
-      <c r="G109" t="s">
+      <c r="G110" t="s">
         <v>728</v>
       </c>
-      <c r="H109" t="n">
+      <c r="H110">
         <v>0</v>
       </c>
-      <c r="I109" t="s">
+      <c r="I110" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="110" spans="1:11">
-      <c r="A110" t="s">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A111" t="s">
         <v>730</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B111" t="s">
         <v>731</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D111" t="s">
         <v>80</v>
       </c>
-      <c r="E110" t="s">
+      <c r="E111" t="s">
         <v>562</v>
       </c>
-      <c r="F110" t="s">
+      <c r="F111" t="s">
         <v>732</v>
       </c>
-      <c r="G110" t="s">
+      <c r="G111" t="s">
         <v>733</v>
       </c>
-      <c r="H110" t="n">
+      <c r="H111">
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:11">
-      <c r="A111" t="s">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A112" t="s">
         <v>734</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B112" t="s">
         <v>735</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C112" t="s">
         <v>736</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D112" t="s">
         <v>58</v>
       </c>
-      <c r="E111" t="s">
+      <c r="E112" t="s">
         <v>737</v>
       </c>
-      <c r="F111" t="s">
+      <c r="F112" t="s">
         <v>738</v>
       </c>
-      <c r="G111" t="s">
+      <c r="G112" t="s">
         <v>739</v>
       </c>
-      <c r="H111" t="n">
+      <c r="H112">
         <v>0</v>
       </c>
-      <c r="I111" t="s">
+      <c r="I112" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="112" spans="1:11">
-      <c r="A112" t="s">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A113" t="s">
         <v>741</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B113" t="s">
         <v>742</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D113" t="s">
         <v>80</v>
       </c>
-      <c r="E112" t="s">
+      <c r="E113" t="s">
         <v>743</v>
       </c>
-      <c r="F112" t="s">
+      <c r="F113" t="s">
         <v>744</v>
       </c>
-      <c r="G112" t="s">
+      <c r="G113" t="s">
         <v>745</v>
       </c>
-      <c r="H112" t="n">
+      <c r="H113">
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:11">
-      <c r="A113" t="s">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A114" t="s">
         <v>746</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B114" t="s">
         <v>747</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C114" t="s">
         <v>748</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D114" t="s">
         <v>749</v>
       </c>
-      <c r="E113" t="s">
+      <c r="E114" t="s">
         <v>750</v>
       </c>
-      <c r="F113" t="s">
+      <c r="F114" t="s">
         <v>751</v>
       </c>
-      <c r="G113" t="s">
+      <c r="G114" t="s">
         <v>752</v>
       </c>
-      <c r="H113" t="n">
+      <c r="H114">
         <v>155</v>
       </c>
-      <c r="I113" t="s">
+      <c r="I114" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="114" spans="1:11">
-      <c r="A114" t="s">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A115" t="s">
         <v>754</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B115" t="s">
         <v>755</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C115" t="s">
         <v>756</v>
       </c>
-      <c r="E114" t="s">
+      <c r="E115" t="s">
         <v>757</v>
       </c>
-      <c r="F114" t="s">
+      <c r="F115" t="s">
         <v>758</v>
       </c>
-      <c r="G114" t="s">
+      <c r="G115" t="s">
         <v>759</v>
       </c>
-      <c r="H114" t="n">
+      <c r="H115">
         <v>16</v>
       </c>
-      <c r="I114" t="s">
+      <c r="I115" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="115" spans="1:11">
-      <c r="A115" t="s">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A116" t="s">
         <v>761</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B116" t="s">
         <v>762</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C116" t="s">
         <v>763</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D116" t="s">
         <v>58</v>
       </c>
-      <c r="E115" t="s">
+      <c r="E116" t="s">
         <v>764</v>
       </c>
-      <c r="F115" t="s">
+      <c r="F116" t="s">
         <v>765</v>
       </c>
-      <c r="G115" t="s">
+      <c r="G116" t="s">
         <v>766</v>
       </c>
-      <c r="H115" t="n">
+      <c r="H116">
         <v>0</v>
       </c>
-      <c r="I115" t="s">
+      <c r="I116" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="116" spans="1:11">
-      <c r="A116" t="s">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A117" t="s">
         <v>768</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B117" t="s">
         <v>769</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C117" t="s">
         <v>770</v>
       </c>
-      <c r="E116" t="s">
+      <c r="E117" t="s">
         <v>771</v>
       </c>
-      <c r="F116" t="s">
+      <c r="F117" t="s">
         <v>772</v>
       </c>
-      <c r="G116" t="s">
+      <c r="G117" t="s">
         <v>773</v>
       </c>
-      <c r="H116" t="n">
+      <c r="H117">
         <v>6</v>
       </c>
-      <c r="I116" t="s">
+      <c r="I117" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="117" spans="1:11">
-      <c r="A117" t="s">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A118" t="s">
         <v>775</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B118" t="s">
         <v>776</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C118" t="s">
         <v>777</v>
       </c>
-      <c r="E117" t="s">
+      <c r="E118" t="s">
         <v>778</v>
       </c>
-      <c r="F117" t="s">
+      <c r="F118" t="s">
         <v>779</v>
       </c>
-      <c r="G117" t="s">
+      <c r="G118" t="s">
         <v>780</v>
       </c>
-      <c r="H117" t="n">
+      <c r="H118">
         <v>4</v>
       </c>
-      <c r="I117" t="s">
+      <c r="I118" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="118" spans="1:11">
-      <c r="A118" t="s">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A119" t="s">
         <v>782</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B119" t="s">
         <v>783</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C119" t="s">
         <v>784</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D119" t="s">
         <v>223</v>
       </c>
-      <c r="E118" t="s">
+      <c r="E119" t="s">
         <v>785</v>
       </c>
-      <c r="F118" t="s">
+      <c r="F119" t="s">
         <v>786</v>
       </c>
-      <c r="G118" t="s">
+      <c r="G119" t="s">
         <v>787</v>
       </c>
-      <c r="H118" t="n">
+      <c r="H119">
         <v>0</v>
       </c>
-      <c r="I118" t="s">
+      <c r="I119" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="119" spans="1:11">
-      <c r="A119" t="s">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A120" t="s">
         <v>789</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B120" t="s">
         <v>790</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C120" t="s">
         <v>791</v>
       </c>
-      <c r="E119" t="s">
+      <c r="E120" t="s">
         <v>792</v>
       </c>
-      <c r="F119" t="s">
+      <c r="F120" t="s">
         <v>793</v>
       </c>
-      <c r="G119" t="s">
+      <c r="G120" t="s">
         <v>794</v>
       </c>
-      <c r="H119" t="n">
+      <c r="H120">
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:11">
-      <c r="A120" t="s">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A121" t="s">
         <v>795</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B121" t="s">
         <v>796</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D121" t="s">
         <v>80</v>
       </c>
-      <c r="E120" t="s">
+      <c r="E121" t="s">
         <v>797</v>
       </c>
-      <c r="F120" t="s">
+      <c r="F121" t="s">
         <v>798</v>
       </c>
-      <c r="G120" t="s">
+      <c r="G121" t="s">
         <v>799</v>
       </c>
-      <c r="H120" t="n">
+      <c r="H121">
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:11">
-      <c r="A121" t="s">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A122" t="s">
         <v>800</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B122" t="s">
         <v>801</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C122" t="s">
         <v>802</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D122" t="s">
         <v>803</v>
       </c>
-      <c r="E121" t="s">
+      <c r="E122" t="s">
         <v>804</v>
       </c>
-      <c r="F121" t="s">
+      <c r="F122" t="s">
         <v>805</v>
       </c>
-      <c r="G121" t="s">
+      <c r="G122" t="s">
         <v>806</v>
       </c>
-      <c r="H121" t="n">
+      <c r="H122">
         <v>12</v>
       </c>
-      <c r="I121" t="s">
+      <c r="I122" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="122" spans="1:11">
-      <c r="A122" t="s">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A123" t="s">
         <v>808</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B123" t="s">
         <v>809</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C123" t="s">
         <v>810</v>
       </c>
-      <c r="E122" t="s">
+      <c r="E123" t="s">
         <v>811</v>
       </c>
-      <c r="G122" t="s">
+      <c r="G123" t="s">
         <v>812</v>
       </c>
-      <c r="H122" t="n">
+      <c r="H123">
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:11">
-      <c r="A123" t="s">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A124" t="s">
         <v>813</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B124" t="s">
         <v>814</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C124" t="s">
         <v>815</v>
       </c>
-      <c r="E123" t="s">
+      <c r="E124" t="s">
         <v>816</v>
       </c>
-      <c r="F123" t="s">
+      <c r="F124" t="s">
         <v>817</v>
       </c>
-      <c r="G123" t="s">
+      <c r="G124" t="s">
         <v>818</v>
       </c>
-      <c r="H123" t="n">
+      <c r="H124">
         <v>0</v>
       </c>
-      <c r="I123" t="s">
+      <c r="I124" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="124" spans="1:11">
-      <c r="A124" t="s">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A125" t="s">
         <v>820</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B125" t="s">
         <v>821</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C125" t="s">
         <v>822</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D125" t="s">
         <v>823</v>
       </c>
-      <c r="E124" t="s">
+      <c r="E125" t="s">
         <v>824</v>
       </c>
-      <c r="F124" t="s">
+      <c r="F125" t="s">
         <v>825</v>
       </c>
-      <c r="G124" t="s">
+      <c r="G125" t="s">
         <v>826</v>
       </c>
-      <c r="H124" t="n">
+      <c r="H125">
         <v>4</v>
       </c>
-      <c r="I124" t="s">
+      <c r="I125" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="125" spans="1:11">
-      <c r="A125" t="s">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A126" t="s">
         <v>828</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B126" t="s">
         <v>829</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C126" t="s">
         <v>830</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D126" t="s">
         <v>575</v>
       </c>
-      <c r="E125" t="s">
+      <c r="E126" t="s">
         <v>831</v>
       </c>
-      <c r="G125" t="s">
+      <c r="G126" t="s">
         <v>832</v>
       </c>
-      <c r="H125" t="n">
+      <c r="H126">
         <v>1</v>
       </c>
-      <c r="I125" t="s">
+      <c r="I126" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="126" spans="1:11">
-      <c r="A126" t="s">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A127" t="s">
         <v>834</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B127" t="s">
         <v>835</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C127" t="s">
         <v>836</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D127" t="s">
         <v>99</v>
       </c>
-      <c r="E126" t="s">
+      <c r="E127" t="s">
         <v>837</v>
       </c>
-      <c r="F126" t="s">
+      <c r="F127" t="s">
         <v>838</v>
       </c>
-      <c r="G126" t="s">
+      <c r="G127" t="s">
         <v>839</v>
       </c>
-      <c r="H126" t="n">
+      <c r="H127">
         <v>109</v>
       </c>
-      <c r="I126" t="s">
+      <c r="I127" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="127" spans="1:11">
-      <c r="A127" t="s">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A128" t="s">
         <v>841</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B128" t="s">
         <v>842</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D128" t="s">
         <v>80</v>
       </c>
-      <c r="E127" t="s">
+      <c r="E128" t="s">
         <v>843</v>
       </c>
-      <c r="F127" t="s">
+      <c r="F128" t="s">
         <v>844</v>
       </c>
-      <c r="G127" t="s">
+      <c r="G128" t="s">
         <v>845</v>
       </c>
-      <c r="H127" t="n">
+      <c r="H128">
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:11">
-      <c r="A128" t="s">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A129" t="s">
         <v>846</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B129" t="s">
         <v>847</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C129" t="s">
         <v>848</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D129" t="s">
         <v>223</v>
       </c>
-      <c r="E128" t="s">
+      <c r="E129" t="s">
         <v>849</v>
       </c>
-      <c r="F128" t="s">
+      <c r="F129" t="s">
         <v>850</v>
       </c>
-      <c r="G128" t="s">
+      <c r="G129" t="s">
         <v>851</v>
       </c>
-      <c r="H128" t="n">
+      <c r="H129">
         <v>5</v>
       </c>
-      <c r="I128" t="s">
+      <c r="I129" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="129" spans="1:11">
-      <c r="A129" t="s">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A130" t="s">
         <v>853</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B130" t="s">
         <v>854</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C130" t="s">
         <v>855</v>
       </c>
-      <c r="E129" t="s">
+      <c r="E130" t="s">
         <v>856</v>
       </c>
-      <c r="G129" t="s">
+      <c r="G130" t="s">
         <v>857</v>
       </c>
-      <c r="H129" t="n">
+      <c r="H130">
         <v>32</v>
       </c>
-      <c r="I129" t="s">
+      <c r="I130" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="130" spans="1:11">
-      <c r="A130" t="s">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A131" t="s">
         <v>859</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B131" t="s">
         <v>860</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D131" t="s">
         <v>186</v>
       </c>
-      <c r="E130" t="s">
+      <c r="E131" t="s">
         <v>861</v>
       </c>
-      <c r="F130" t="s">
+      <c r="F131" t="s">
         <v>862</v>
       </c>
-      <c r="G130" t="s">
+      <c r="G131" t="s">
         <v>863</v>
       </c>
-      <c r="H130" t="n">
+      <c r="H131">
         <v>0</v>
       </c>
-      <c r="I130" t="s">
+      <c r="I131" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="131" spans="1:11">
-      <c r="A131" t="s">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A132" t="s">
         <v>865</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B132" t="s">
         <v>866</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C132" t="s">
         <v>867</v>
       </c>
-      <c r="D131" t="s">
+      <c r="D132" t="s">
         <v>58</v>
       </c>
-      <c r="E131" t="s">
+      <c r="E132" t="s">
         <v>868</v>
       </c>
-      <c r="F131" t="s">
+      <c r="F132" t="s">
         <v>869</v>
       </c>
-      <c r="G131" t="s">
+      <c r="G132" t="s">
         <v>870</v>
       </c>
-      <c r="H131" t="n">
+      <c r="H132">
         <v>11</v>
       </c>
-      <c r="I131" t="s">
+      <c r="I132" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="132" spans="1:11">
-      <c r="A132" t="s">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A133" t="s">
         <v>872</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B133" t="s">
         <v>873</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C133" t="s">
         <v>874</v>
       </c>
-      <c r="E132" t="s">
+      <c r="E133" t="s">
         <v>875</v>
       </c>
-      <c r="F132" t="s">
+      <c r="F133" t="s">
         <v>876</v>
       </c>
-      <c r="G132" t="s">
+      <c r="G133" t="s">
         <v>877</v>
       </c>
-      <c r="H132" t="n">
+      <c r="H133">
         <v>8</v>
       </c>
-      <c r="I132" t="s">
+      <c r="I133" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="133" spans="1:11">
-      <c r="A133" t="s">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A134" t="s">
         <v>879</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B134" t="s">
         <v>880</v>
-      </c>
-      <c r="D133" t="s">
-        <v>80</v>
-      </c>
-      <c r="E133" t="s">
-        <v>881</v>
-      </c>
-      <c r="F133" t="s">
-        <v>882</v>
-      </c>
-      <c r="G133" t="s">
-        <v>883</v>
-      </c>
-      <c r="H133" t="n">
-        <v>2</v>
-      </c>
-      <c r="I133" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11">
-      <c r="A134" t="s">
-        <v>885</v>
-      </c>
-      <c r="B134" t="s">
-        <v>886</v>
       </c>
       <c r="D134" t="s">
         <v>80</v>
       </c>
       <c r="E134" t="s">
+        <v>881</v>
+      </c>
+      <c r="F134" t="s">
+        <v>882</v>
+      </c>
+      <c r="G134" t="s">
+        <v>883</v>
+      </c>
+      <c r="H134">
+        <v>2</v>
+      </c>
+      <c r="I134" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A135" t="s">
+        <v>885</v>
+      </c>
+      <c r="B135" t="s">
+        <v>886</v>
+      </c>
+      <c r="D135" t="s">
+        <v>80</v>
+      </c>
+      <c r="E135" t="s">
         <v>887</v>
       </c>
-      <c r="F134" t="s">
+      <c r="F135" t="s">
         <v>888</v>
       </c>
-      <c r="G134" t="s">
+      <c r="G135" t="s">
         <v>889</v>
       </c>
-      <c r="H134" t="n">
+      <c r="H135">
         <v>0</v>
       </c>
-      <c r="I134" t="s">
+      <c r="I135" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="135" spans="1:11">
-      <c r="A135" t="s">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A136" t="s">
         <v>891</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B136" t="s">
         <v>892</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C136" t="s">
         <v>893</v>
       </c>
-      <c r="E135" t="s">
+      <c r="E136" t="s">
         <v>894</v>
       </c>
-      <c r="F135" t="s">
+      <c r="F136" t="s">
         <v>895</v>
       </c>
-      <c r="G135" t="s">
+      <c r="G136" t="s">
         <v>896</v>
       </c>
-      <c r="H135" t="n">
+      <c r="H136">
         <v>14</v>
       </c>
-      <c r="I135" t="s">
+      <c r="I136" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="136" spans="1:11">
-      <c r="A136" t="s">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A137" t="s">
         <v>898</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B137" t="s">
         <v>899</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C137" t="s">
         <v>900</v>
       </c>
-      <c r="D136" t="s">
+      <c r="D137" t="s">
         <v>901</v>
       </c>
-      <c r="E136" t="s">
+      <c r="E137" t="s">
         <v>902</v>
       </c>
-      <c r="F136" t="s">
+      <c r="F137" t="s">
         <v>903</v>
       </c>
-      <c r="G136" t="s">
+      <c r="G137" t="s">
         <v>904</v>
       </c>
-      <c r="H136" t="n">
+      <c r="H137">
         <v>17</v>
       </c>
-      <c r="I136" t="s">
+      <c r="I137" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="137" spans="1:11">
-      <c r="A137" t="s">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A138" t="s">
         <v>906</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B138" t="s">
         <v>907</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C138" t="s">
         <v>908</v>
       </c>
-      <c r="E137" t="s">
+      <c r="E138" t="s">
         <v>909</v>
       </c>
-      <c r="F137" t="s">
+      <c r="F138" t="s">
         <v>910</v>
       </c>
-      <c r="G137" t="s">
+      <c r="G138" t="s">
         <v>911</v>
       </c>
-      <c r="H137" t="n">
+      <c r="H138">
         <v>12</v>
       </c>
-      <c r="I137" t="s">
+      <c r="I138" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="138" spans="1:11">
-      <c r="A138" t="s">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A139" t="s">
         <v>913</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B139" t="s">
         <v>914</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C139" t="s">
         <v>915</v>
       </c>
-      <c r="E138" t="s">
+      <c r="E139" t="s">
         <v>916</v>
       </c>
-      <c r="F138" t="s">
+      <c r="F139" t="s">
         <v>917</v>
       </c>
-      <c r="G138" t="s">
+      <c r="G139" t="s">
         <v>918</v>
       </c>
-      <c r="H138" t="n">
+      <c r="H139">
         <v>42</v>
       </c>
-      <c r="I138" t="s">
+      <c r="I139" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="139" spans="1:11">
-      <c r="A139" t="s">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A140" t="s">
         <v>920</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B140" t="s">
         <v>921</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C140" t="s">
         <v>922</v>
       </c>
-      <c r="E139" t="s">
+      <c r="E140" t="s">
         <v>923</v>
       </c>
-      <c r="F139" t="s">
+      <c r="F140" t="s">
         <v>924</v>
       </c>
-      <c r="G139" t="s">
+      <c r="G140" t="s">
         <v>925</v>
       </c>
-      <c r="H139" t="n">
+      <c r="H140">
         <v>4</v>
       </c>
-      <c r="I139" t="s">
+      <c r="I140" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="140" spans="1:11">
-      <c r="A140" t="s">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A141" t="s">
         <v>927</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B141" t="s">
         <v>928</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C141" t="s">
         <v>929</v>
       </c>
-      <c r="D140" t="s">
+      <c r="D141" t="s">
         <v>58</v>
       </c>
-      <c r="E140" t="s">
+      <c r="E141" t="s">
         <v>930</v>
       </c>
-      <c r="F140" t="s">
+      <c r="F141" t="s">
         <v>931</v>
       </c>
-      <c r="G140" t="s">
+      <c r="G141" t="s">
         <v>932</v>
       </c>
-      <c r="H140" t="n">
+      <c r="H141">
         <v>0</v>
       </c>
-      <c r="I140" t="s">
+      <c r="I141" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="141" spans="1:11">
-      <c r="A141" t="s">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A142" t="s">
         <v>934</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B142" t="s">
         <v>935</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C142" t="s">
         <v>936</v>
       </c>
-      <c r="D141" t="s">
+      <c r="D142" t="s">
         <v>223</v>
       </c>
-      <c r="E141" t="s">
+      <c r="E142" t="s">
         <v>937</v>
       </c>
-      <c r="F141" t="s">
+      <c r="F142" t="s">
         <v>938</v>
       </c>
-      <c r="G141" t="s">
+      <c r="G142" t="s">
         <v>939</v>
       </c>
-      <c r="H141" t="n">
+      <c r="H142">
         <v>10</v>
       </c>
-      <c r="I141" t="s">
+      <c r="I142" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="142" spans="1:11">
-      <c r="A142" t="s">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A143" t="s">
         <v>941</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B143" t="s">
         <v>942</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C143" t="s">
         <v>943</v>
       </c>
-      <c r="E142" t="s">
+      <c r="E143" t="s">
         <v>944</v>
       </c>
-      <c r="F142" t="s">
+      <c r="F143" t="s">
         <v>945</v>
       </c>
-      <c r="G142" t="s">
+      <c r="G143" t="s">
         <v>946</v>
       </c>
-      <c r="H142" t="n">
+      <c r="H143">
         <v>77</v>
       </c>
-      <c r="I142" t="s">
+      <c r="I143" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="143" spans="1:11">
-      <c r="A143" t="s">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A144" t="s">
         <v>948</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B144" t="s">
         <v>949</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C144" t="s">
         <v>950</v>
       </c>
-      <c r="E143" t="s">
+      <c r="E144" t="s">
         <v>951</v>
       </c>
-      <c r="F143" t="s">
+      <c r="F144" t="s">
         <v>952</v>
       </c>
-      <c r="G143" t="s">
+      <c r="G144" t="s">
         <v>953</v>
       </c>
-      <c r="H143" t="n">
+      <c r="H144">
         <v>38</v>
       </c>
-      <c r="I143" t="s">
+      <c r="I144" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="144" spans="1:11">
-      <c r="A144" t="s">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A145" t="s">
         <v>954</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B145" t="s">
         <v>955</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C145" t="s">
         <v>956</v>
       </c>
-      <c r="E144" t="s">
+      <c r="E145" t="s">
         <v>957</v>
       </c>
-      <c r="F144" t="s">
+      <c r="F145" t="s">
         <v>958</v>
       </c>
-      <c r="G144" t="s">
+      <c r="G145" t="s">
         <v>959</v>
       </c>
-      <c r="H144" t="n">
+      <c r="H145">
         <v>74</v>
       </c>
-      <c r="I144" t="s">
+      <c r="I145" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="145" spans="1:11">
-      <c r="A145" t="s">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A146" t="s">
         <v>961</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B146" t="s">
         <v>962</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C146" t="s">
         <v>963</v>
       </c>
-      <c r="E145" t="s">
+      <c r="E146" t="s">
         <v>964</v>
       </c>
-      <c r="F145" t="s">
+      <c r="F146" t="s">
         <v>965</v>
       </c>
-      <c r="G145" t="s">
+      <c r="G146" t="s">
         <v>966</v>
       </c>
-      <c r="H145" t="n">
+      <c r="H146">
         <v>10</v>
       </c>
-      <c r="I145" t="s">
+      <c r="I146" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="146" spans="1:11">
-      <c r="A146" t="s">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A147" t="s">
         <v>968</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B147" t="s">
         <v>969</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C147" t="s">
         <v>970</v>
       </c>
-      <c r="E146" t="s">
+      <c r="E147" t="s">
         <v>971</v>
       </c>
-      <c r="F146" t="s">
+      <c r="F147" t="s">
         <v>972</v>
       </c>
-      <c r="G146" t="s">
+      <c r="G147" t="s">
         <v>973</v>
       </c>
-      <c r="H146" t="n">
+      <c r="H147">
         <v>1</v>
       </c>
-      <c r="I146" t="s">
+      <c r="I147" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="147" spans="1:11">
-      <c r="A147" t="s">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A148" t="s">
         <v>975</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B148" t="s">
         <v>976</v>
       </c>
-      <c r="D147" t="s">
+      <c r="D148" t="s">
         <v>80</v>
       </c>
-      <c r="E147" t="s">
+      <c r="E148" t="s">
         <v>977</v>
       </c>
-      <c r="F147" t="s">
+      <c r="F148" t="s">
         <v>978</v>
       </c>
-      <c r="G147" t="s">
+      <c r="G148" t="s">
         <v>979</v>
       </c>
-      <c r="H147" t="n">
+      <c r="H148">
         <v>0</v>
       </c>
-      <c r="I147" t="s">
+      <c r="I148" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="148" spans="1:11">
-      <c r="A148" t="s">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A149" t="s">
         <v>981</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B149" t="s">
         <v>982</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C149" t="s">
         <v>983</v>
       </c>
-      <c r="D148" t="s">
+      <c r="D149" t="s">
         <v>223</v>
       </c>
-      <c r="E148" t="s">
+      <c r="E149" t="s">
         <v>984</v>
       </c>
-      <c r="F148" t="s">
+      <c r="F149" t="s">
         <v>985</v>
       </c>
-      <c r="G148" t="s">
+      <c r="G149" t="s">
         <v>986</v>
       </c>
-      <c r="H148" t="n">
+      <c r="H149">
         <v>1</v>
       </c>
-      <c r="I148" t="s">
+      <c r="I149" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="149" spans="1:11">
-      <c r="A149" t="s">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A150" t="s">
         <v>988</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B150" t="s">
         <v>989</v>
       </c>
-      <c r="D149" t="s">
+      <c r="D150" t="s">
         <v>186</v>
       </c>
-      <c r="E149" t="s">
+      <c r="E150" t="s">
         <v>445</v>
       </c>
-      <c r="F149" t="s">
+      <c r="F150" t="s">
         <v>990</v>
       </c>
-      <c r="G149" t="s">
+      <c r="G150" t="s">
         <v>991</v>
       </c>
-      <c r="H149" t="n">
+      <c r="H150">
         <v>0</v>
       </c>
-      <c r="I149" t="s">
+      <c r="I150" t="s">
         <v>992</v>
       </c>
     </row>
-    <row r="150" spans="1:11">
-      <c r="A150" t="s">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A151" t="s">
         <v>993</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B151" t="s">
         <v>994</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C151" t="s">
         <v>995</v>
       </c>
-      <c r="E150" t="s">
+      <c r="E151" t="s">
         <v>916</v>
       </c>
-      <c r="F150" t="s">
+      <c r="F151" t="s">
         <v>996</v>
       </c>
-      <c r="G150" t="s">
+      <c r="G151" t="s">
         <v>997</v>
       </c>
-      <c r="H150" t="n">
+      <c r="H151">
         <v>33</v>
       </c>
-      <c r="I150" t="s">
+      <c r="I151" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="151" spans="1:11">
-      <c r="A151" t="s">
-        <v>988</v>
-      </c>
-      <c r="B151" t="s">
-        <v>999</v>
-      </c>
-      <c r="D151" t="s">
-        <v>186</v>
-      </c>
-      <c r="E151" t="s">
-        <v>466</v>
-      </c>
-      <c r="F151" t="s">
-        <v>990</v>
-      </c>
-      <c r="G151" t="s">
-        <v>1000</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
         <v>988</v>
       </c>
       <c r="B152" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="D152" t="s">
         <v>186</v>
       </c>
       <c r="E152" t="s">
-        <v>1002</v>
+        <v>466</v>
       </c>
       <c r="F152" t="s">
         <v>990</v>
       </c>
       <c r="G152" t="s">
-        <v>1003</v>
-      </c>
-      <c r="H152" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H152">
         <v>0</v>
       </c>
       <c r="I152" t="s">
         <v>992</v>
       </c>
     </row>
-    <row r="153" spans="1:11">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
         <v>988</v>
       </c>
       <c r="B153" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="D153" t="s">
         <v>186</v>
       </c>
       <c r="E153" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="F153" t="s">
         <v>990</v>
       </c>
       <c r="G153" t="s">
-        <v>1006</v>
-      </c>
-      <c r="H153" t="n">
+        <v>1003</v>
+      </c>
+      <c r="H153">
         <v>0</v>
       </c>
       <c r="I153" t="s">
         <v>992</v>
       </c>
     </row>
-    <row r="154" spans="1:11">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
+        <v>988</v>
+      </c>
+      <c r="B154" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D154" t="s">
+        <v>186</v>
+      </c>
+      <c r="E154" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F154" t="s">
+        <v>990</v>
+      </c>
+      <c r="G154" t="s">
+        <v>1006</v>
+      </c>
+      <c r="H154">
+        <v>0</v>
+      </c>
+      <c r="I154" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A155" t="s">
         <v>1007</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B155" t="s">
         <v>1008</v>
-      </c>
-      <c r="D154" t="s">
-        <v>80</v>
-      </c>
-      <c r="E154" t="s">
-        <v>764</v>
-      </c>
-      <c r="F154" t="s">
-        <v>1009</v>
-      </c>
-      <c r="G154" t="s">
-        <v>1010</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11">
-      <c r="A155" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B155" t="s">
-        <v>1012</v>
       </c>
       <c r="D155" t="s">
         <v>80</v>
       </c>
       <c r="E155" t="s">
-        <v>1013</v>
+        <v>764</v>
       </c>
       <c r="F155" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="G155" t="s">
-        <v>1015</v>
-      </c>
-      <c r="H155" t="n">
+        <v>1010</v>
+      </c>
+      <c r="H155">
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:11">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="B156" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="D156" t="s">
         <v>80</v>
       </c>
       <c r="E156" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F156" t="s">
+        <v>1014</v>
+      </c>
+      <c r="G156" t="s">
+        <v>1015</v>
+      </c>
+      <c r="H156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A157" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B157" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D157" t="s">
+        <v>80</v>
+      </c>
+      <c r="E157" t="s">
         <v>1018</v>
       </c>
-      <c r="F156" t="s">
+      <c r="F157" t="s">
         <v>1019</v>
       </c>
-      <c r="G156" t="s">
+      <c r="G157" t="s">
         <v>1020</v>
       </c>
-      <c r="H156" t="n">
+      <c r="H157">
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:11">
-      <c r="A157" t="s">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A158" t="s">
         <v>1021</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B158" t="s">
         <v>1022</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C158" t="s">
         <v>1023</v>
       </c>
-      <c r="D157" t="s">
+      <c r="D158" t="s">
         <v>223</v>
       </c>
-      <c r="E157" t="s">
+      <c r="E158" t="s">
         <v>1024</v>
       </c>
-      <c r="F157" t="s">
+      <c r="F158" t="s">
         <v>1025</v>
       </c>
-      <c r="G157" t="s">
+      <c r="G158" t="s">
         <v>1026</v>
       </c>
-      <c r="H157" t="n">
+      <c r="H158">
         <v>6</v>
       </c>
-      <c r="I157" t="s">
+      <c r="I158" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="158" spans="1:11">
-      <c r="A158" t="s">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A159" t="s">
         <v>1028</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B159" t="s">
         <v>1029</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C159" t="s">
         <v>1030</v>
       </c>
-      <c r="E158" t="s">
+      <c r="E159" t="s">
         <v>1031</v>
       </c>
-      <c r="F158" t="s">
+      <c r="F159" t="s">
         <v>1032</v>
       </c>
-      <c r="G158" t="s">
+      <c r="G159" t="s">
         <v>1033</v>
       </c>
-      <c r="H158" t="n">
+      <c r="H159">
         <v>23</v>
       </c>
-      <c r="I158" t="s">
+      <c r="I159" t="s">
         <v>1034</v>
       </c>
     </row>
-    <row r="159" spans="1:11">
-      <c r="A159" t="s">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A160" t="s">
         <v>1035</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B160" t="s">
         <v>1036</v>
       </c>
-      <c r="D159" t="s">
+      <c r="D160" t="s">
         <v>80</v>
       </c>
-      <c r="E159" t="s">
+      <c r="E160" t="s">
         <v>1037</v>
       </c>
-      <c r="F159" t="s">
+      <c r="F160" t="s">
         <v>1038</v>
       </c>
-      <c r="G159" t="s">
+      <c r="G160" t="s">
         <v>1039</v>
       </c>
-      <c r="H159" t="n">
+      <c r="H160">
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:11">
-      <c r="A160" t="s">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A161" t="s">
         <v>1040</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B161" t="s">
         <v>1041</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C161" t="s">
         <v>1042</v>
       </c>
-      <c r="E160" t="s">
+      <c r="E161" t="s">
         <v>1043</v>
       </c>
-      <c r="F160" t="s">
+      <c r="F161" t="s">
         <v>1044</v>
       </c>
-      <c r="G160" t="s">
+      <c r="G161" t="s">
         <v>1045</v>
       </c>
-      <c r="H160" t="n">
+      <c r="H161">
         <v>31</v>
       </c>
-      <c r="I160" t="s">
+      <c r="I161" t="s">
         <v>1046</v>
       </c>
     </row>
-    <row r="161" spans="1:11">
-      <c r="A161" t="s">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A162" t="s">
         <v>1047</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B162" t="s">
         <v>1048</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C162" t="s">
         <v>1049</v>
       </c>
-      <c r="D161" t="s">
+      <c r="D162" t="s">
         <v>749</v>
       </c>
-      <c r="E161" t="s">
+      <c r="E162" t="s">
         <v>1050</v>
       </c>
-      <c r="F161" t="s">
+      <c r="F162" t="s">
         <v>1051</v>
       </c>
-      <c r="G161" t="s">
+      <c r="G162" t="s">
         <v>1052</v>
       </c>
-      <c r="H161" t="n">
+      <c r="H162">
         <v>6</v>
       </c>
-      <c r="I161" t="s">
+      <c r="I162" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="162" spans="1:11">
-      <c r="A162" t="s">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A163" t="s">
         <v>1054</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B163" t="s">
         <v>1055</v>
-      </c>
-      <c r="D162" t="s">
-        <v>80</v>
-      </c>
-      <c r="E162" t="s">
-        <v>1056</v>
-      </c>
-      <c r="F162" t="s">
-        <v>1057</v>
-      </c>
-      <c r="G162" t="s">
-        <v>1058</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11">
-      <c r="A163" t="s">
-        <v>1059</v>
-      </c>
-      <c r="B163" t="s">
-        <v>1060</v>
       </c>
       <c r="D163" t="s">
         <v>80</v>
       </c>
       <c r="E163" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F163" t="s">
+        <v>1057</v>
+      </c>
+      <c r="G163" t="s">
+        <v>1058</v>
+      </c>
+      <c r="H163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A164" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B164" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D164" t="s">
+        <v>80</v>
+      </c>
+      <c r="E164" t="s">
         <v>1061</v>
       </c>
-      <c r="F163" t="s">
+      <c r="F164" t="s">
         <v>1062</v>
       </c>
-      <c r="G163" t="s">
+      <c r="G164" t="s">
         <v>1063</v>
       </c>
-      <c r="H163" t="n">
+      <c r="H164">
         <v>0</v>
       </c>
-      <c r="I163" t="s">
+      <c r="I164" t="s">
         <v>1064</v>
       </c>
     </row>
-    <row r="164" spans="1:11">
-      <c r="A164" t="s">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A165" t="s">
         <v>1065</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B165" t="s">
         <v>1066</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C165" t="s">
         <v>1067</v>
       </c>
-      <c r="E164" t="s">
+      <c r="E165" t="s">
         <v>1068</v>
       </c>
-      <c r="F164" t="s">
+      <c r="F165" t="s">
         <v>1069</v>
       </c>
-      <c r="G164" t="s">
+      <c r="G165" t="s">
         <v>1070</v>
       </c>
-      <c r="H164" t="n">
+      <c r="H165">
         <v>77</v>
       </c>
-      <c r="I164" t="s">
+      <c r="I165" t="s">
         <v>1071</v>
       </c>
     </row>
-    <row r="165" spans="1:11">
-      <c r="A165" t="s">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A166" t="s">
         <v>1072</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B166" t="s">
         <v>1073</v>
       </c>
-      <c r="D165" t="s">
+      <c r="D166" t="s">
         <v>80</v>
       </c>
-      <c r="E165" t="s">
+      <c r="E166" t="s">
         <v>1074</v>
       </c>
-      <c r="F165" t="s">
+      <c r="F166" t="s">
         <v>1075</v>
       </c>
-      <c r="G165" t="s">
+      <c r="G166" t="s">
         <v>1076</v>
       </c>
-      <c r="H165" t="n">
+      <c r="H166">
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:11">
-      <c r="A166" t="s">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A167" t="s">
         <v>1077</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B167" t="s">
         <v>1078</v>
       </c>
-      <c r="C166" t="s">
+      <c r="C167" t="s">
         <v>1079</v>
       </c>
-      <c r="D166" t="s">
+      <c r="D167" t="s">
         <v>1080</v>
       </c>
-      <c r="E166" t="s">
+      <c r="E167" t="s">
         <v>1081</v>
       </c>
-      <c r="G166" t="s">
+      <c r="G167" t="s">
         <v>1082</v>
       </c>
-      <c r="H166" t="n">
+      <c r="H167">
         <v>0</v>
       </c>
-      <c r="I166" t="s">
+      <c r="I167" t="s">
         <v>1083</v>
       </c>
     </row>
-    <row r="167" spans="1:11">
-      <c r="A167" t="s">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A168" t="s">
         <v>1084</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B168" t="s">
         <v>1085</v>
       </c>
-      <c r="C167" t="s">
+      <c r="C168" t="s">
         <v>1086</v>
       </c>
-      <c r="E167" t="s">
+      <c r="E168" t="s">
         <v>1087</v>
       </c>
-      <c r="F167" t="s">
+      <c r="F168" t="s">
         <v>1088</v>
       </c>
-      <c r="G167" t="s">
+      <c r="G168" t="s">
         <v>1089</v>
       </c>
-      <c r="H167" t="n">
+      <c r="H168">
         <v>30</v>
       </c>
-      <c r="I167" t="s">
+      <c r="I168" t="s">
         <v>1090</v>
       </c>
     </row>
-    <row r="168" spans="1:11">
-      <c r="A168" t="s">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A169" t="s">
         <v>1091</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B169" t="s">
         <v>1092</v>
-      </c>
-      <c r="D168" t="s">
-        <v>80</v>
-      </c>
-      <c r="E168" t="s">
-        <v>1093</v>
-      </c>
-      <c r="F168" t="s">
-        <v>1094</v>
-      </c>
-      <c r="G168" t="s">
-        <v>1095</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11">
-      <c r="A169" t="s">
-        <v>1097</v>
-      </c>
-      <c r="B169" t="s">
-        <v>1098</v>
       </c>
       <c r="D169" t="s">
         <v>80</v>
       </c>
       <c r="E169" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F169" t="s">
+        <v>1094</v>
+      </c>
+      <c r="G169" t="s">
+        <v>1095</v>
+      </c>
+      <c r="H169">
+        <v>0</v>
+      </c>
+      <c r="I169" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A170" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B170" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D170" t="s">
+        <v>80</v>
+      </c>
+      <c r="E170" t="s">
         <v>1099</v>
       </c>
-      <c r="F169" t="s">
+      <c r="F170" t="s">
         <v>1100</v>
       </c>
-      <c r="G169" t="s">
+      <c r="G170" t="s">
         <v>1101</v>
       </c>
-      <c r="H169" t="n">
+      <c r="H170">
         <v>0</v>
       </c>
-      <c r="I169" t="s">
+      <c r="I170" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="170" spans="1:11">
-      <c r="A170" t="s">
-        <v>1103</v>
-      </c>
-      <c r="B170" t="s">
-        <v>1104</v>
-      </c>
-      <c r="D170" t="s">
-        <v>186</v>
-      </c>
-      <c r="E170" t="s">
-        <v>466</v>
-      </c>
-      <c r="F170" t="s">
-        <v>1105</v>
-      </c>
-      <c r="G170" t="s">
-        <v>1106</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
         <v>1103</v>
       </c>
       <c r="B171" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="D171" t="s">
         <v>186</v>
       </c>
       <c r="E171" t="s">
-        <v>1109</v>
+        <v>466</v>
       </c>
       <c r="F171" t="s">
         <v>1105</v>
       </c>
       <c r="G171" t="s">
-        <v>1110</v>
-      </c>
-      <c r="H171" t="n">
+        <v>1106</v>
+      </c>
+      <c r="H171">
         <v>0</v>
       </c>
       <c r="I171" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="172" spans="1:11">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B172" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D172" t="s">
+        <v>186</v>
+      </c>
+      <c r="E172" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F172" t="s">
+        <v>1105</v>
+      </c>
+      <c r="G172" t="s">
+        <v>1110</v>
+      </c>
+      <c r="H172">
+        <v>0</v>
+      </c>
+      <c r="I172" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A173" t="s">
         <v>1111</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B173" t="s">
         <v>1112</v>
       </c>
-      <c r="D172" t="s">
+      <c r="D173" t="s">
         <v>80</v>
       </c>
-      <c r="E172" t="s">
+      <c r="E173" t="s">
         <v>1113</v>
       </c>
-      <c r="F172" t="s">
+      <c r="F173" t="s">
         <v>1114</v>
       </c>
-      <c r="G172" t="s">
+      <c r="G173" t="s">
         <v>1115</v>
       </c>
-      <c r="H172" t="n">
+      <c r="H173">
         <v>0</v>
       </c>
-      <c r="I172" t="s">
+      <c r="I173" t="s">
         <v>1116</v>
       </c>
     </row>
-    <row r="173" spans="1:11">
-      <c r="A173" t="s">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A174" t="s">
         <v>1117</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B174" t="s">
         <v>1118</v>
       </c>
-      <c r="C173" t="s">
+      <c r="C174" t="s">
         <v>1119</v>
       </c>
-      <c r="D173" t="s">
+      <c r="D174" t="s">
         <v>1120</v>
       </c>
-      <c r="E173" t="s">
+      <c r="E174" t="s">
         <v>1121</v>
       </c>
-      <c r="F173" t="s">
+      <c r="F174" t="s">
         <v>1122</v>
       </c>
-      <c r="G173" t="s">
+      <c r="G174" t="s">
         <v>1123</v>
       </c>
-      <c r="H173" t="n">
+      <c r="H174">
         <v>5</v>
       </c>
-      <c r="I173" t="s">
+      <c r="I174" t="s">
         <v>1124</v>
       </c>
     </row>
-    <row r="174" spans="1:11">
-      <c r="A174" t="s">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A175" t="s">
         <v>1125</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B175" t="s">
         <v>1126</v>
       </c>
-      <c r="D174" t="s">
+      <c r="D175" t="s">
         <v>186</v>
       </c>
-      <c r="E174" t="s">
+      <c r="E175" t="s">
         <v>1127</v>
       </c>
-      <c r="F174" t="s">
+      <c r="F175" t="s">
         <v>1128</v>
       </c>
-      <c r="G174" t="s">
+      <c r="G175" t="s">
         <v>1129</v>
       </c>
-      <c r="H174" t="n">
+      <c r="H175">
         <v>0</v>
       </c>
-      <c r="I174" t="s">
+      <c r="I175" t="s">
         <v>1130</v>
       </c>
     </row>
-    <row r="175" spans="1:11">
-      <c r="A175" t="s">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A176" t="s">
         <v>1131</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B176" t="s">
         <v>1132</v>
       </c>
-      <c r="C175" t="s">
+      <c r="C176" t="s">
         <v>1133</v>
       </c>
-      <c r="E175" t="s">
+      <c r="E176" t="s">
         <v>1134</v>
       </c>
-      <c r="F175" t="s">
+      <c r="F176" t="s">
         <v>1135</v>
       </c>
-      <c r="G175" t="s">
+      <c r="G176" t="s">
         <v>1136</v>
       </c>
-      <c r="H175" t="n">
+      <c r="H176">
         <v>19</v>
       </c>
-      <c r="I175" t="s">
+      <c r="I176" t="s">
         <v>1137</v>
       </c>
     </row>
-    <row r="176" spans="1:11">
-      <c r="A176" t="s">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A177" t="s">
         <v>1138</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B177" t="s">
         <v>1139</v>
       </c>
-      <c r="C176" t="s">
+      <c r="C177" t="s">
         <v>1140</v>
       </c>
-      <c r="E176" t="s">
+      <c r="E177" t="s">
         <v>1141</v>
       </c>
-      <c r="F176" t="s">
+      <c r="F177" t="s">
         <v>1142</v>
       </c>
-      <c r="G176" t="s">
+      <c r="G177" t="s">
         <v>1143</v>
       </c>
-      <c r="H176" t="n">
+      <c r="H177">
         <v>13</v>
       </c>
-      <c r="I176" t="s">
+      <c r="I177" t="s">
         <v>1144</v>
       </c>
     </row>
-    <row r="177" spans="1:11">
-      <c r="A177" t="s">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A178" t="s">
         <v>1145</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B178" t="s">
         <v>1146</v>
       </c>
-      <c r="D177" t="s">
+      <c r="D178" t="s">
         <v>80</v>
       </c>
-      <c r="E177" t="s">
+      <c r="E178" t="s">
         <v>439</v>
       </c>
-      <c r="F177" t="s">
+      <c r="F178" t="s">
         <v>1147</v>
       </c>
-      <c r="G177" t="s">
+      <c r="G178" t="s">
         <v>1148</v>
       </c>
-      <c r="H177" t="n">
+      <c r="H178">
         <v>0</v>
       </c>
-      <c r="I177" t="s">
+      <c r="I178" t="s">
         <v>1149</v>
       </c>
     </row>
-    <row r="178" spans="1:11">
-      <c r="A178" t="s">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A179" t="s">
         <v>1150</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B179" t="s">
         <v>1151</v>
       </c>
-      <c r="C178" t="s">
+      <c r="C179" t="s">
         <v>1152</v>
       </c>
-      <c r="D178" t="s">
+      <c r="D179" t="s">
         <v>50</v>
       </c>
-      <c r="E178" t="s">
+      <c r="E179" t="s">
         <v>1153</v>
       </c>
-      <c r="F178" t="s">
+      <c r="F179" t="s">
         <v>1154</v>
       </c>
-      <c r="G178" t="s">
+      <c r="G179" t="s">
         <v>1155</v>
       </c>
-      <c r="H178" t="n">
+      <c r="H179">
         <v>1</v>
       </c>
-      <c r="I178" t="s">
+      <c r="I179" t="s">
         <v>1156</v>
       </c>
     </row>
-    <row r="179" spans="1:11">
-      <c r="A179" t="s">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A180" t="s">
         <v>1157</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B180" t="s">
         <v>1158</v>
       </c>
-      <c r="D179" t="s">
+      <c r="D180" t="s">
         <v>80</v>
       </c>
-      <c r="E179" t="s">
+      <c r="E180" t="s">
         <v>1159</v>
       </c>
-      <c r="F179" t="s">
+      <c r="F180" t="s">
         <v>1160</v>
       </c>
-      <c r="G179" t="s">
+      <c r="G180" t="s">
         <v>1161</v>
       </c>
-      <c r="H179" t="n">
+      <c r="H180">
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:11">
-      <c r="A180" t="s">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A181" t="s">
         <v>1162</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B181" t="s">
         <v>1163</v>
       </c>
-      <c r="C180" t="s">
+      <c r="C181" t="s">
         <v>1164</v>
       </c>
-      <c r="D180" t="s">
+      <c r="D181" t="s">
         <v>58</v>
       </c>
-      <c r="E180" t="s">
+      <c r="E181" t="s">
         <v>1165</v>
       </c>
-      <c r="F180" t="s">
+      <c r="F181" t="s">
         <v>1166</v>
       </c>
-      <c r="G180" t="s">
+      <c r="G181" t="s">
         <v>1167</v>
       </c>
-      <c r="H180" t="n">
+      <c r="H181">
         <v>6</v>
       </c>
-      <c r="I180" t="s">
+      <c r="I181" t="s">
         <v>1168</v>
       </c>
     </row>
-    <row r="181" spans="1:11">
-      <c r="A181" t="s">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A182" t="s">
         <v>1169</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B182" t="s">
         <v>1170</v>
       </c>
-      <c r="C181" t="s">
+      <c r="C182" t="s">
         <v>1171</v>
       </c>
-      <c r="E181" t="s">
+      <c r="E182" t="s">
         <v>1172</v>
       </c>
-      <c r="F181" t="s">
+      <c r="F182" t="s">
         <v>1173</v>
       </c>
-      <c r="G181" t="s">
+      <c r="G182" t="s">
         <v>1174</v>
       </c>
-      <c r="H181" t="n">
+      <c r="H182">
         <v>96</v>
       </c>
-      <c r="I181" t="s">
+      <c r="I182" t="s">
         <v>1175</v>
       </c>
     </row>
-    <row r="182" spans="1:11">
-      <c r="A182" t="s">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A183" t="s">
         <v>1176</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B183" t="s">
         <v>1177</v>
       </c>
-      <c r="C182" t="s">
+      <c r="C183" t="s">
         <v>1178</v>
       </c>
-      <c r="E182" t="s">
+      <c r="E183" t="s">
         <v>1179</v>
       </c>
-      <c r="F182" t="s">
+      <c r="F183" t="s">
         <v>1180</v>
       </c>
-      <c r="G182" t="s">
+      <c r="G183" t="s">
         <v>1181</v>
       </c>
-      <c r="H182" t="n">
+      <c r="H183">
         <v>8</v>
       </c>
-      <c r="I182" t="s">
+      <c r="I183" t="s">
         <v>1182</v>
       </c>
     </row>
-    <row r="183" spans="1:11">
-      <c r="A183" t="s">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A184" t="s">
         <v>1183</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B184" t="s">
         <v>1184</v>
       </c>
-      <c r="D183" t="s">
+      <c r="D184" t="s">
         <v>80</v>
       </c>
-      <c r="E183" t="s">
+      <c r="E184" t="s">
         <v>1185</v>
       </c>
-      <c r="F183" t="s">
+      <c r="F184" t="s">
         <v>1186</v>
       </c>
-      <c r="G183" t="s">
+      <c r="G184" t="s">
         <v>1187</v>
       </c>
-      <c r="H183" t="n">
+      <c r="H184">
         <v>1</v>
       </c>
-      <c r="I183" t="s">
+      <c r="I184" t="s">
         <v>1188</v>
       </c>
     </row>
-    <row r="184" spans="1:11">
-      <c r="A184" t="s">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A185" t="s">
         <v>1189</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B185" t="s">
         <v>1190</v>
       </c>
-      <c r="C184" t="s">
+      <c r="C185" t="s">
         <v>1191</v>
       </c>
-      <c r="E184" t="s">
+      <c r="E185" t="s">
         <v>1192</v>
       </c>
-      <c r="F184" t="s">
+      <c r="F185" t="s">
         <v>1193</v>
       </c>
-      <c r="G184" t="s">
+      <c r="G185" t="s">
         <v>1194</v>
       </c>
-      <c r="H184" t="n">
+      <c r="H185">
         <v>1</v>
       </c>
-      <c r="I184" t="s">
+      <c r="I185" t="s">
         <v>1195</v>
       </c>
     </row>
-    <row r="185" spans="1:11">
-      <c r="A185" t="s">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A186" t="s">
         <v>1196</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B186" t="s">
         <v>1197</v>
       </c>
-      <c r="C185" t="s">
+      <c r="C186" t="s">
         <v>1198</v>
       </c>
-      <c r="D185" t="s">
+      <c r="D186" t="s">
         <v>1199</v>
       </c>
-      <c r="E185" t="s">
+      <c r="E186" t="s">
         <v>1200</v>
       </c>
-      <c r="F185" t="s">
+      <c r="F186" t="s">
         <v>1201</v>
       </c>
-      <c r="G185" t="s">
+      <c r="G186" t="s">
         <v>1202</v>
       </c>
-      <c r="H185" t="n">
+      <c r="H186">
         <v>20</v>
       </c>
-      <c r="I185" t="s">
+      <c r="I186" t="s">
         <v>1203</v>
       </c>
     </row>
-    <row r="186" spans="1:11">
-      <c r="A186" t="s">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A187" t="s">
         <v>1204</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B187" t="s">
         <v>1205</v>
-      </c>
-      <c r="D186" t="s">
-        <v>80</v>
-      </c>
-      <c r="E186" t="s">
-        <v>279</v>
-      </c>
-      <c r="F186" t="s">
-        <v>1206</v>
-      </c>
-      <c r="G186" t="s">
-        <v>1207</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:11">
-      <c r="A187" t="s">
-        <v>1208</v>
-      </c>
-      <c r="B187" t="s">
-        <v>1209</v>
       </c>
       <c r="D187" t="s">
         <v>80</v>
       </c>
       <c r="E187" t="s">
-        <v>1210</v>
+        <v>279</v>
       </c>
       <c r="F187" t="s">
-        <v>1211</v>
+        <v>1206</v>
       </c>
       <c r="G187" t="s">
-        <v>1212</v>
-      </c>
-      <c r="H187" t="n">
+        <v>1207</v>
+      </c>
+      <c r="H187">
         <v>0</v>
       </c>
-      <c r="I187" t="s">
-        <v>1213</v>
-      </c>
     </row>
-    <row r="188" spans="1:11">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A188" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
       <c r="B188" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
       <c r="D188" t="s">
         <v>80</v>
       </c>
       <c r="E188" t="s">
-        <v>1216</v>
+        <v>1210</v>
       </c>
       <c r="F188" t="s">
-        <v>1217</v>
+        <v>1211</v>
       </c>
       <c r="G188" t="s">
-        <v>1218</v>
-      </c>
-      <c r="H188" t="n">
+        <v>1212</v>
+      </c>
+      <c r="H188">
         <v>0</v>
       </c>
       <c r="I188" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
     </row>
-    <row r="189" spans="1:11">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A189" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="B189" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="D189" t="s">
         <v>80</v>
       </c>
       <c r="E189" t="s">
-        <v>1222</v>
+        <v>1216</v>
       </c>
       <c r="F189" t="s">
-        <v>1223</v>
+        <v>1217</v>
       </c>
       <c r="G189" t="s">
-        <v>1224</v>
-      </c>
-      <c r="H189" t="n">
+        <v>1218</v>
+      </c>
+      <c r="H189">
         <v>0</v>
       </c>
       <c r="I189" t="s">
-        <v>1225</v>
+        <v>1219</v>
       </c>
     </row>
-    <row r="190" spans="1:11">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A190" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
       <c r="B190" t="s">
-        <v>1227</v>
+        <v>1221</v>
       </c>
       <c r="D190" t="s">
         <v>80</v>
       </c>
       <c r="E190" t="s">
-        <v>1216</v>
+        <v>1222</v>
       </c>
       <c r="F190" t="s">
-        <v>1228</v>
+        <v>1223</v>
       </c>
       <c r="G190" t="s">
-        <v>1229</v>
-      </c>
-      <c r="H190" t="n">
+        <v>1224</v>
+      </c>
+      <c r="H190">
         <v>0</v>
       </c>
+      <c r="I190" t="s">
+        <v>1225</v>
+      </c>
     </row>
-    <row r="191" spans="1:11">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A191" t="s">
-        <v>1230</v>
+        <v>1226</v>
       </c>
       <c r="B191" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="D191" t="s">
         <v>80</v>
       </c>
       <c r="E191" t="s">
-        <v>1232</v>
+        <v>1216</v>
       </c>
       <c r="F191" t="s">
-        <v>1233</v>
+        <v>1228</v>
       </c>
       <c r="G191" t="s">
-        <v>1234</v>
-      </c>
-      <c r="H191" t="n">
+        <v>1229</v>
+      </c>
+      <c r="H191">
         <v>0</v>
       </c>
-      <c r="I191" t="s">
-        <v>1235</v>
-      </c>
     </row>
-    <row r="192" spans="1:11">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A192" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="B192" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="D192" t="s">
         <v>80</v>
       </c>
       <c r="E192" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="F192" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="G192" t="s">
-        <v>1240</v>
-      </c>
-      <c r="H192" t="n">
-        <v>13</v>
+        <v>1234</v>
+      </c>
+      <c r="H192">
+        <v>0</v>
       </c>
       <c r="I192" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
-    <row r="193" spans="1:11">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A193" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
       <c r="B193" t="s">
-        <v>1243</v>
+        <v>1237</v>
       </c>
       <c r="D193" t="s">
         <v>80</v>
       </c>
       <c r="E193" t="s">
-        <v>1244</v>
+        <v>1238</v>
+      </c>
+      <c r="F193" t="s">
+        <v>1239</v>
       </c>
       <c r="G193" t="s">
-        <v>1245</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
+        <v>1240</v>
+      </c>
+      <c r="H193">
+        <v>13</v>
       </c>
       <c r="I193" t="s">
-        <v>1246</v>
+        <v>1241</v>
       </c>
     </row>
-    <row r="194" spans="1:11">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A194" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="B194" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="D194" t="s">
         <v>80</v>
       </c>
       <c r="E194" t="s">
-        <v>1249</v>
-      </c>
-      <c r="F194" t="s">
-        <v>1250</v>
+        <v>1244</v>
       </c>
       <c r="G194" t="s">
-        <v>1251</v>
-      </c>
-      <c r="H194" t="n">
+        <v>1245</v>
+      </c>
+      <c r="H194">
         <v>0</v>
       </c>
+      <c r="I194" t="s">
+        <v>1246</v>
+      </c>
     </row>
-    <row r="195" spans="1:11">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A195" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
       <c r="B195" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
       <c r="D195" t="s">
         <v>80</v>
       </c>
       <c r="E195" t="s">
-        <v>1254</v>
+        <v>1249</v>
       </c>
       <c r="F195" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
       <c r="G195" t="s">
-        <v>1256</v>
-      </c>
-      <c r="H195" t="n">
+        <v>1251</v>
+      </c>
+      <c r="H195">
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:11">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A196" t="s">
-        <v>1257</v>
+        <v>1252</v>
       </c>
       <c r="B196" t="s">
-        <v>1258</v>
+        <v>1253</v>
       </c>
       <c r="D196" t="s">
         <v>80</v>
       </c>
       <c r="E196" t="s">
-        <v>1259</v>
+        <v>1254</v>
       </c>
       <c r="F196" t="s">
-        <v>1260</v>
+        <v>1255</v>
       </c>
       <c r="G196" t="s">
-        <v>1261</v>
-      </c>
-      <c r="H196" t="n">
+        <v>1256</v>
+      </c>
+      <c r="H196">
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:11">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A197" t="s">
-        <v>1262</v>
+        <v>1257</v>
       </c>
       <c r="B197" t="s">
-        <v>1263</v>
+        <v>1258</v>
       </c>
       <c r="D197" t="s">
         <v>80</v>
       </c>
       <c r="E197" t="s">
-        <v>1264</v>
+        <v>1259</v>
       </c>
       <c r="F197" t="s">
-        <v>1265</v>
+        <v>1260</v>
       </c>
       <c r="G197" t="s">
-        <v>1266</v>
-      </c>
-      <c r="H197" t="n">
+        <v>1261</v>
+      </c>
+      <c r="H197">
         <v>0</v>
       </c>
-      <c r="I197" t="s">
-        <v>1267</v>
-      </c>
     </row>
-    <row r="198" spans="1:11">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
-        <v>1268</v>
+        <v>1262</v>
       </c>
       <c r="B198" t="s">
-        <v>1269</v>
+        <v>1263</v>
       </c>
       <c r="D198" t="s">
         <v>80</v>
       </c>
       <c r="E198" t="s">
-        <v>1270</v>
+        <v>1264</v>
       </c>
       <c r="F198" t="s">
-        <v>1271</v>
+        <v>1265</v>
       </c>
       <c r="G198" t="s">
-        <v>1272</v>
-      </c>
-      <c r="H198" t="n">
+        <v>1266</v>
+      </c>
+      <c r="H198">
         <v>0</v>
       </c>
       <c r="I198" t="s">
-        <v>1273</v>
+        <v>1267</v>
       </c>
     </row>
-    <row r="199" spans="1:11">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A199" t="s">
-        <v>1274</v>
+        <v>1268</v>
       </c>
       <c r="B199" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
       <c r="D199" t="s">
         <v>80</v>
       </c>
       <c r="E199" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
       <c r="F199" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
       <c r="G199" t="s">
-        <v>1278</v>
-      </c>
-      <c r="H199" t="n">
+        <v>1272</v>
+      </c>
+      <c r="H199">
         <v>0</v>
       </c>
+      <c r="I199" t="s">
+        <v>1273</v>
+      </c>
     </row>
-    <row r="200" spans="1:11">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A200" t="s">
-        <v>1279</v>
+        <v>1274</v>
       </c>
       <c r="B200" t="s">
-        <v>1280</v>
+        <v>1275</v>
       </c>
       <c r="D200" t="s">
         <v>80</v>
       </c>
       <c r="E200" t="s">
-        <v>1281</v>
+        <v>1276</v>
       </c>
       <c r="F200" t="s">
-        <v>1282</v>
+        <v>1277</v>
       </c>
       <c r="G200" t="s">
-        <v>1283</v>
-      </c>
-      <c r="H200" t="n">
+        <v>1278</v>
+      </c>
+      <c r="H200">
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:11">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A201" t="s">
-        <v>1284</v>
+        <v>1279</v>
       </c>
       <c r="B201" t="s">
-        <v>1285</v>
+        <v>1280</v>
       </c>
       <c r="D201" t="s">
         <v>80</v>
       </c>
       <c r="E201" t="s">
-        <v>1286</v>
+        <v>1281</v>
       </c>
       <c r="F201" t="s">
-        <v>1287</v>
+        <v>1282</v>
       </c>
       <c r="G201" t="s">
-        <v>1288</v>
-      </c>
-      <c r="H201" t="n">
-        <v>2</v>
-      </c>
-      <c r="I201" t="s">
-        <v>1289</v>
+        <v>1283</v>
+      </c>
+      <c r="H201">
+        <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:11">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A202" t="s">
-        <v>1290</v>
+        <v>1284</v>
       </c>
       <c r="B202" t="s">
-        <v>1291</v>
+        <v>1285</v>
       </c>
       <c r="D202" t="s">
         <v>80</v>
       </c>
       <c r="E202" t="s">
-        <v>1056</v>
+        <v>1286</v>
       </c>
       <c r="F202" t="s">
-        <v>1292</v>
+        <v>1287</v>
       </c>
       <c r="G202" t="s">
-        <v>1293</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
+        <v>1288</v>
+      </c>
+      <c r="H202">
+        <v>2</v>
+      </c>
+      <c r="I202" t="s">
+        <v>1289</v>
       </c>
     </row>
-    <row r="203" spans="1:11">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A203" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="B203" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="D203" t="s">
         <v>80</v>
       </c>
       <c r="E203" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F203" t="s">
+        <v>1292</v>
+      </c>
+      <c r="G203" t="s">
+        <v>1293</v>
+      </c>
+      <c r="H203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A204" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B204" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D204" t="s">
+        <v>80</v>
+      </c>
+      <c r="E204" t="s">
         <v>1296</v>
       </c>
-      <c r="F203" t="s">
+      <c r="F204" t="s">
         <v>1297</v>
       </c>
-      <c r="G203" t="s">
+      <c r="G204" t="s">
         <v>1298</v>
       </c>
-      <c r="H203" t="n">
+      <c r="H204">
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:11">
-      <c r="A204" t="s">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A205" t="s">
         <v>1299</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B205" t="s">
         <v>1300</v>
       </c>
-      <c r="C204" t="s">
+      <c r="C205" t="s">
         <v>1301</v>
       </c>
-      <c r="D204" t="s">
+      <c r="D205" t="s">
         <v>58</v>
       </c>
-      <c r="E204" t="s">
+      <c r="E205" t="s">
         <v>1302</v>
       </c>
-      <c r="F204" t="s">
+      <c r="F205" t="s">
         <v>1303</v>
       </c>
-      <c r="G204" t="s">
+      <c r="G205" t="s">
         <v>1304</v>
       </c>
-      <c r="H204" t="n">
+      <c r="H205">
         <v>23</v>
       </c>
-      <c r="I204" t="s">
+      <c r="I205" t="s">
         <v>1305</v>
       </c>
     </row>
-    <row r="205" spans="1:11">
-      <c r="A205" t="s">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A206" t="s">
         <v>1306</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B206" t="s">
         <v>1307</v>
       </c>
-      <c r="C205" t="s">
+      <c r="C206" t="s">
         <v>1308</v>
       </c>
-      <c r="E205" t="s">
+      <c r="E206" t="s">
         <v>1309</v>
       </c>
-      <c r="F205" t="s">
+      <c r="F206" t="s">
         <v>1310</v>
       </c>
-      <c r="G205" t="s">
+      <c r="G206" t="s">
         <v>1311</v>
       </c>
-      <c r="H205" t="n">
+      <c r="H206">
         <v>1</v>
       </c>
-      <c r="I205" t="s">
+      <c r="I206" t="s">
         <v>1312</v>
       </c>
     </row>
-    <row r="206" spans="1:11">
-      <c r="A206" t="s">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A207" t="s">
         <v>1313</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B207" t="s">
         <v>1314</v>
       </c>
-      <c r="C206" t="s">
+      <c r="C207" t="s">
         <v>1315</v>
       </c>
-      <c r="E206" t="s">
+      <c r="E207" t="s">
         <v>1316</v>
       </c>
-      <c r="F206" t="s">
+      <c r="F207" t="s">
         <v>1317</v>
       </c>
-      <c r="G206" t="s">
+      <c r="G207" t="s">
         <v>1318</v>
       </c>
-      <c r="H206" t="n">
+      <c r="H207">
         <v>0</v>
       </c>
-      <c r="I206" t="s">
+      <c r="I207" t="s">
         <v>1319</v>
       </c>
     </row>
-    <row r="207" spans="1:11">
-      <c r="A207" t="s">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A208" t="s">
         <v>1320</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B208" t="s">
         <v>1321</v>
       </c>
-      <c r="C207" t="s">
+      <c r="C208" t="s">
         <v>1322</v>
       </c>
-      <c r="E207" t="s">
+      <c r="E208" t="s">
         <v>1323</v>
       </c>
-      <c r="F207" t="s">
+      <c r="F208" t="s">
         <v>1324</v>
       </c>
-      <c r="G207" t="s">
+      <c r="G208" t="s">
         <v>1325</v>
       </c>
-      <c r="H207" t="n">
+      <c r="H208">
         <v>14</v>
       </c>
-      <c r="I207" t="s">
+      <c r="I208" t="s">
         <v>1326</v>
       </c>
     </row>
-    <row r="208" spans="1:11">
-      <c r="A208" t="s">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A209" t="s">
         <v>1327</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B209" t="s">
         <v>1328</v>
       </c>
-      <c r="C208" t="s">
+      <c r="C209" t="s">
         <v>1329</v>
       </c>
-      <c r="E208" t="s">
+      <c r="E209" t="s">
         <v>785</v>
       </c>
-      <c r="F208" t="s">
+      <c r="F209" t="s">
         <v>1330</v>
       </c>
-      <c r="G208" t="s">
+      <c r="G209" t="s">
         <v>1331</v>
       </c>
-      <c r="H208" t="n">
+      <c r="H209">
         <v>10</v>
       </c>
-      <c r="I208" t="s">
+      <c r="I209" t="s">
         <v>1332</v>
       </c>
     </row>
-    <row r="209" spans="1:11">
-      <c r="A209" t="s">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A210" t="s">
         <v>1333</v>
       </c>
-      <c r="B209" t="s">
+      <c r="B210" t="s">
         <v>1334</v>
       </c>
-      <c r="C209" t="s">
+      <c r="C210" t="s">
         <v>1335</v>
       </c>
-      <c r="D209" t="s">
+      <c r="D210" t="s">
         <v>223</v>
       </c>
-      <c r="E209" t="s">
+      <c r="E210" t="s">
         <v>1336</v>
       </c>
-      <c r="F209" t="s">
+      <c r="F210" t="s">
         <v>1337</v>
       </c>
-      <c r="G209" t="s">
+      <c r="G210" t="s">
         <v>1338</v>
       </c>
-      <c r="H209" t="n">
+      <c r="H210">
         <v>0</v>
       </c>
-      <c r="I209" t="s">
+      <c r="I210" t="s">
         <v>1339</v>
       </c>
     </row>
-    <row r="210" spans="1:11">
-      <c r="A210" t="s">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A211" t="s">
         <v>1340</v>
       </c>
-      <c r="B210" t="s">
+      <c r="B211" t="s">
         <v>1341</v>
       </c>
-      <c r="C210" t="s">
+      <c r="C211" t="s">
         <v>1342</v>
       </c>
-      <c r="D210" t="s">
+      <c r="D211" t="s">
         <v>99</v>
       </c>
-      <c r="E210" t="s">
+      <c r="E211" t="s">
         <v>1343</v>
       </c>
-      <c r="F210" t="s">
+      <c r="F211" t="s">
         <v>1344</v>
       </c>
-      <c r="G210" t="s">
+      <c r="G211" t="s">
         <v>1345</v>
       </c>
-      <c r="H210" t="n">
+      <c r="H211">
         <v>45</v>
       </c>
-      <c r="I210" t="s">
+      <c r="I211" t="s">
         <v>1346</v>
       </c>
     </row>
-    <row r="211" spans="1:11">
-      <c r="A211" t="s">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A212" t="s">
         <v>1347</v>
       </c>
-      <c r="B211" t="s">
+      <c r="B212" t="s">
         <v>1348</v>
       </c>
-      <c r="D211" t="s">
+      <c r="D212" t="s">
         <v>80</v>
       </c>
-      <c r="E211" t="s">
+      <c r="E212" t="s">
         <v>977</v>
       </c>
-      <c r="F211" t="s">
+      <c r="F212" t="s">
         <v>377</v>
       </c>
-      <c r="G211" t="s">
+      <c r="G212" t="s">
         <v>1349</v>
       </c>
-      <c r="H211" t="n">
+      <c r="H212">
         <v>0</v>
       </c>
-      <c r="I211" t="s">
+      <c r="I212" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="212" spans="1:11">
-      <c r="A212" t="s">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A213" t="s">
         <v>1350</v>
       </c>
-      <c r="B212" t="s">
+      <c r="B213" t="s">
         <v>1351</v>
       </c>
-      <c r="C212" t="s">
+      <c r="C213" t="s">
         <v>1352</v>
       </c>
-      <c r="E212" t="s">
+      <c r="E213" t="s">
         <v>1353</v>
       </c>
-      <c r="F212" t="s">
+      <c r="F213" t="s">
         <v>1354</v>
       </c>
-      <c r="G212" t="s">
+      <c r="G213" t="s">
         <v>1355</v>
       </c>
-      <c r="H212" t="n">
+      <c r="H213">
         <v>34</v>
       </c>
-      <c r="I212" t="s">
+      <c r="I213" t="s">
         <v>1356</v>
       </c>
     </row>
-    <row r="213" spans="1:11">
-      <c r="A213" t="s">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A214" t="s">
         <v>1357</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B214" t="s">
         <v>1358</v>
-      </c>
-      <c r="D213" t="s">
-        <v>80</v>
-      </c>
-      <c r="E213" t="s">
-        <v>1359</v>
-      </c>
-      <c r="F213" t="s">
-        <v>1360</v>
-      </c>
-      <c r="G213" t="s">
-        <v>1361</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="s">
-        <v>1362</v>
-      </c>
-    </row>
-    <row r="214" spans="1:11">
-      <c r="A214" t="s">
-        <v>1363</v>
-      </c>
-      <c r="B214" t="s">
-        <v>1364</v>
       </c>
       <c r="D214" t="s">
         <v>80</v>
       </c>
       <c r="E214" t="s">
-        <v>1365</v>
+        <v>1359</v>
       </c>
       <c r="F214" t="s">
-        <v>1366</v>
+        <v>1360</v>
       </c>
       <c r="G214" t="s">
-        <v>1367</v>
-      </c>
-      <c r="H214" t="n">
+        <v>1361</v>
+      </c>
+      <c r="H214">
         <v>0</v>
       </c>
       <c r="I214" t="s">
-        <v>1368</v>
+        <v>1362</v>
       </c>
     </row>
-    <row r="215" spans="1:11">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A215" t="s">
-        <v>1369</v>
+        <v>1363</v>
       </c>
       <c r="B215" t="s">
-        <v>1370</v>
+        <v>1364</v>
       </c>
       <c r="D215" t="s">
         <v>80</v>
       </c>
       <c r="E215" t="s">
-        <v>1179</v>
+        <v>1365</v>
       </c>
       <c r="F215" t="s">
-        <v>1371</v>
+        <v>1366</v>
       </c>
       <c r="G215" t="s">
-        <v>1372</v>
-      </c>
-      <c r="H215" t="n">
-        <v>1</v>
+        <v>1367</v>
+      </c>
+      <c r="H215">
+        <v>0</v>
       </c>
       <c r="I215" t="s">
-        <v>1373</v>
+        <v>1368</v>
       </c>
     </row>
-    <row r="216" spans="1:11">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A216" t="s">
-        <v>1374</v>
+        <v>1369</v>
       </c>
       <c r="B216" t="s">
-        <v>1375</v>
+        <v>1370</v>
       </c>
       <c r="D216" t="s">
         <v>80</v>
       </c>
       <c r="E216" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F216" t="s">
+        <v>1371</v>
+      </c>
+      <c r="G216" t="s">
+        <v>1372</v>
+      </c>
+      <c r="H216">
+        <v>1</v>
+      </c>
+      <c r="I216" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A217" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B217" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D217" t="s">
+        <v>80</v>
+      </c>
+      <c r="E217" t="s">
         <v>1376</v>
       </c>
-      <c r="F216" t="s">
+      <c r="F217" t="s">
         <v>1377</v>
       </c>
-      <c r="G216" t="s">
+      <c r="G217" t="s">
         <v>1378</v>
       </c>
-      <c r="H216" t="n">
+      <c r="H217">
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:11">
-      <c r="A217" t="s">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A218" t="s">
         <v>1379</v>
       </c>
-      <c r="B217" t="s">
+      <c r="B218" t="s">
         <v>1380</v>
       </c>
-      <c r="C217" t="s">
+      <c r="C218" t="s">
         <v>1381</v>
       </c>
-      <c r="D217" t="s">
+      <c r="D218" t="s">
         <v>223</v>
       </c>
-      <c r="E217" t="s">
+      <c r="E218" t="s">
         <v>1382</v>
       </c>
-      <c r="F217" t="s">
+      <c r="F218" t="s">
         <v>1383</v>
       </c>
-      <c r="G217" t="s">
+      <c r="G218" t="s">
         <v>1384</v>
       </c>
-      <c r="H217" t="n">
+      <c r="H218">
         <v>1</v>
       </c>
-      <c r="I217" t="s">
+      <c r="I218" t="s">
         <v>1385</v>
       </c>
     </row>
-    <row r="218" spans="1:11">
-      <c r="A218" t="s">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A219" t="s">
         <v>1386</v>
       </c>
-      <c r="B218" t="s">
+      <c r="B219" t="s">
         <v>1387</v>
       </c>
-      <c r="D218" t="s">
+      <c r="D219" t="s">
         <v>80</v>
       </c>
-      <c r="E218" t="s">
+      <c r="E219" t="s">
         <v>1388</v>
       </c>
-      <c r="F218" t="s">
+      <c r="F219" t="s">
         <v>1389</v>
       </c>
-      <c r="G218" t="s">
+      <c r="G219" t="s">
         <v>1390</v>
       </c>
-      <c r="H218" t="n">
+      <c r="H219">
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:11">
-      <c r="A219" t="s">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A220" t="s">
         <v>1391</v>
       </c>
-      <c r="B219" t="s">
+      <c r="B220" t="s">
         <v>1392</v>
       </c>
-      <c r="C219" t="s">
+      <c r="C220" t="s">
         <v>1393</v>
       </c>
-      <c r="E219" t="s">
+      <c r="E220" t="s">
         <v>1394</v>
       </c>
-      <c r="F219" t="s">
+      <c r="F220" t="s">
         <v>1395</v>
       </c>
-      <c r="G219" t="s">
+      <c r="G220" t="s">
         <v>1396</v>
       </c>
-      <c r="H219" t="n">
+      <c r="H220">
         <v>5</v>
       </c>
-      <c r="I219" t="s">
+      <c r="I220" t="s">
         <v>1397</v>
       </c>
     </row>
-    <row r="220" spans="1:11">
-      <c r="A220" t="s">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A221" t="s">
         <v>1398</v>
       </c>
-      <c r="B220" t="s">
+      <c r="B221" t="s">
         <v>1399</v>
       </c>
-      <c r="C220" t="s">
+      <c r="C221" t="s">
         <v>1400</v>
       </c>
-      <c r="D220" t="s">
+      <c r="D221" t="s">
         <v>1401</v>
       </c>
-      <c r="E220" t="s">
+      <c r="E221" t="s">
         <v>1402</v>
       </c>
-      <c r="F220" t="s">
+      <c r="F221" t="s">
         <v>1403</v>
       </c>
-      <c r="G220" t="s">
+      <c r="G221" t="s">
         <v>1404</v>
       </c>
-      <c r="H220" t="n">
+      <c r="H221">
         <v>12</v>
       </c>
-      <c r="I220" t="s">
+      <c r="I221" t="s">
         <v>1405</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{A556376A-5B7F-4DC9-A8A2-08149AA042DF}"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>